--- a/Experiment_results/xlsx_format/ex_uni_all.xlsx
+++ b/Experiment_results/xlsx_format/ex_uni_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBEF75-74A6-49AC-8A7A-C424D86B3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FB2F1-BBA5-4EF3-B0A6-4D43AFCD52EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="737">
   <si>
     <t>ETTh1</t>
   </si>
@@ -2074,6 +2074,177 @@
   </si>
   <si>
     <t>Repeat_Closest</t>
+  </si>
+  <si>
+    <t>UniTime_8 (zero-shot)</t>
+  </si>
+  <si>
+    <t>UniTime_8 (finetune)</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>0.493</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.817</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>1.105</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>1.096</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>1.029</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>1.037</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.210</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>1.054</t>
+  </si>
+  <si>
+    <t>1.135</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.738</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>1.832</t>
+  </si>
+  <si>
+    <t>0.460</t>
+  </si>
+  <si>
+    <t>1.769</t>
+  </si>
+  <si>
+    <t>1.759</t>
+  </si>
+  <si>
+    <t>1.828</t>
+  </si>
+  <si>
+    <t>0.480</t>
+  </si>
+  <si>
+    <t>1.572</t>
+  </si>
+  <si>
+    <t>1.458</t>
+  </si>
+  <si>
+    <t>1.405</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>1.472</t>
+  </si>
+  <si>
+    <t>1.591</t>
+  </si>
+  <si>
+    <t>0.412</t>
   </si>
 </sst>
 </file>
@@ -2401,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6080771B-968D-4139-AF07-E0D46FA87262}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,15 +2587,15 @@
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="19.21875" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="12" width="17.77734375" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" customWidth="1"/>
+    <col min="10" max="14" width="17.77734375" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>136</v>
       </c>
@@ -2456,28 +2627,34 @@
         <v>541</v>
       </c>
       <c r="K1" t="s">
+        <v>680</v>
+      </c>
+      <c r="L1" t="s">
+        <v>681</v>
+      </c>
+      <c r="M1" t="s">
         <v>408</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>537</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>406</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>407</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>543</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>544</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>24</v>
       </c>
@@ -2505,29 +2682,35 @@
       <c r="J2" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>282</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>82</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>370</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>374</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>545</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>96</v>
       </c>
@@ -2555,29 +2738,35 @@
       <c r="J3" t="s">
         <v>293</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
+        <v>619</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>118</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>213</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>283</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>548</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>192</v>
       </c>
@@ -2605,29 +2794,35 @@
       <c r="J4" t="s">
         <v>294</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>110</v>
-      </c>
-      <c r="N4" t="s">
-        <v>372</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
       </c>
       <c r="P4" t="s">
         <v>372</v>
       </c>
       <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
+        <v>372</v>
+      </c>
+      <c r="S4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>336</v>
       </c>
@@ -2655,29 +2850,35 @@
       <c r="J5" t="s">
         <v>203</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" t="s">
+        <v>559</v>
+      </c>
+      <c r="L5" t="s">
+        <v>682</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>161</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>349</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>112</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>183</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>549</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>720</v>
       </c>
@@ -2705,29 +2906,35 @@
       <c r="J6" t="s">
         <v>295</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>463</v>
+      <c r="K6" t="s">
+        <v>598</v>
       </c>
       <c r="L6" t="s">
         <v>386</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="N6" t="s">
+        <v>386</v>
+      </c>
+      <c r="O6" t="s">
         <v>85</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>253</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -2755,29 +2962,35 @@
       <c r="J7" t="s">
         <v>296</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>170</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>346</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>123</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>283</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>96</v>
       </c>
@@ -2805,29 +3018,35 @@
       <c r="J8" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" t="s">
+        <v>683</v>
+      </c>
+      <c r="L8" t="s">
+        <v>492</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>387</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>347</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>104</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>325</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>163</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>192</v>
       </c>
@@ -2855,29 +3074,35 @@
       <c r="J9" t="s">
         <v>297</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" t="s">
+        <v>684</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>388</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>350</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>373</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>207</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>484</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>336</v>
       </c>
@@ -2905,29 +3130,35 @@
       <c r="J10" t="s">
         <v>298</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" t="s">
+        <v>474</v>
+      </c>
+      <c r="L10" t="s">
+        <v>305</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>293</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>105</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>210</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>471</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>550</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>720</v>
       </c>
@@ -2955,29 +3186,35 @@
       <c r="J11" t="s">
         <v>299</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" t="s">
+        <v>295</v>
+      </c>
+      <c r="L11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>389</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>336</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>200</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>514</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24</v>
       </c>
@@ -3005,29 +3242,35 @@
       <c r="J12" t="s">
         <v>239</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" t="s">
+        <v>667</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>172</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>351</v>
-      </c>
-      <c r="N12" t="s">
-        <v>280</v>
-      </c>
-      <c r="O12" t="s">
-        <v>515</v>
       </c>
       <c r="P12" t="s">
         <v>280</v>
       </c>
       <c r="Q12" t="s">
+        <v>515</v>
+      </c>
+      <c r="R12" t="s">
+        <v>280</v>
+      </c>
+      <c r="S12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>96</v>
       </c>
@@ -3055,29 +3298,35 @@
       <c r="J13" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" t="s">
+        <v>616</v>
+      </c>
+      <c r="L13" t="s">
+        <v>685</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>362</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>274</v>
-      </c>
-      <c r="N13" t="s">
-        <v>370</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
       </c>
       <c r="P13" t="s">
         <v>370</v>
       </c>
       <c r="Q13" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13" t="s">
+        <v>370</v>
+      </c>
+      <c r="S13" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>192</v>
       </c>
@@ -3105,29 +3354,35 @@
       <c r="J14" t="s">
         <v>300</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>670</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>337</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>306</v>
-      </c>
-      <c r="N14" t="s">
-        <v>374</v>
-      </c>
-      <c r="O14" t="s">
-        <v>275</v>
       </c>
       <c r="P14" t="s">
         <v>374</v>
       </c>
       <c r="Q14" t="s">
+        <v>275</v>
+      </c>
+      <c r="R14" t="s">
+        <v>374</v>
+      </c>
+      <c r="S14" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>336</v>
       </c>
@@ -3155,29 +3410,35 @@
       <c r="J15" t="s">
         <v>301</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" t="s">
+        <v>686</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>164</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>345</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>375</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>516</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>516</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>720</v>
       </c>
@@ -3205,29 +3466,35 @@
       <c r="J16" t="s">
         <v>208</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" t="s">
+        <v>578</v>
+      </c>
+      <c r="L16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="L16" t="s">
-        <v>369</v>
-      </c>
-      <c r="M16" t="s">
-        <v>61</v>
       </c>
       <c r="N16" t="s">
         <v>369</v>
       </c>
       <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q16" t="s">
         <v>513</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>513</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -3255,29 +3522,35 @@
       <c r="J17" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" t="s">
+        <v>301</v>
+      </c>
+      <c r="L17" t="s">
+        <v>667</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>395</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>166</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>376</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>517</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>551</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>96</v>
       </c>
@@ -3305,29 +3578,35 @@
       <c r="J18" t="s">
         <v>302</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" t="s">
+        <v>687</v>
+      </c>
+      <c r="L18" t="s">
+        <v>569</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>60</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>164</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>375</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>169</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>252</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>192</v>
       </c>
@@ -3355,29 +3634,35 @@
       <c r="J19" t="s">
         <v>303</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" t="s">
+        <v>688</v>
+      </c>
+      <c r="L19" t="s">
+        <v>296</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>338</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>352</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>30</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>161</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>46</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>336</v>
       </c>
@@ -3405,29 +3690,35 @@
       <c r="J20" t="s">
         <v>304</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s">
+        <v>620</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>104</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>209</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>377</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>255</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>239</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>720</v>
       </c>
@@ -3455,29 +3746,35 @@
       <c r="J21" t="s">
         <v>305</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>240</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>297</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>353</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>333</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>484</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>210</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24</v>
       </c>
@@ -3505,29 +3802,35 @@
       <c r="J22" t="s">
         <v>306</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s">
+        <v>337</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>326</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>354</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>274</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>518</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>370</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>96</v>
       </c>
@@ -3555,29 +3858,35 @@
       <c r="J23" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" t="s">
+        <v>668</v>
+      </c>
+      <c r="L23" t="s">
+        <v>689</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>377</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>181</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>161</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>519</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>73</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>192</v>
       </c>
@@ -3605,29 +3914,35 @@
       <c r="J24" t="s">
         <v>307</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" t="s">
+        <v>690</v>
+      </c>
+      <c r="L24" t="s">
+        <v>327</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>390</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>106</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>200</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>465</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>75</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>336</v>
       </c>
@@ -3655,29 +3970,35 @@
       <c r="J25" t="s">
         <v>308</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" t="s">
+        <v>691</v>
+      </c>
+      <c r="L25" t="s">
+        <v>692</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>391</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>355</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>378</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>520</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>552</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>720</v>
       </c>
@@ -3705,29 +4026,35 @@
       <c r="J26" t="s">
         <v>309</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" t="s">
+        <v>693</v>
+      </c>
+      <c r="L26" t="s">
+        <v>694</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>392</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>356</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>379</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>521</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>553</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3755,29 +4082,35 @@
       <c r="J27" t="s">
         <v>310</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" t="s">
+        <v>695</v>
+      </c>
+      <c r="L27" t="s">
+        <v>695</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>179</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>179</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>266</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>340</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>546</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>96</v>
       </c>
@@ -3805,29 +4138,35 @@
       <c r="J28" t="s">
         <v>311</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>127</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>524</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>339</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>128</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>524</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>192</v>
       </c>
@@ -3855,29 +4194,35 @@
       <c r="J29" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>417</v>
+      <c r="K29" t="s">
+        <v>380</v>
       </c>
       <c r="L29" t="s">
         <v>182</v>
       </c>
-      <c r="M29" t="s">
-        <v>127</v>
+      <c r="M29" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="N29" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="O29" t="s">
         <v>127</v>
       </c>
       <c r="P29" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>127</v>
+      </c>
+      <c r="R29" t="s">
         <v>77</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="S29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>336</v>
       </c>
@@ -3905,29 +4250,35 @@
       <c r="J30" t="s">
         <v>312</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>476</v>
+      <c r="K30" t="s">
+        <v>182</v>
       </c>
       <c r="L30" t="s">
         <v>91</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="N30" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" t="s">
         <v>127</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>180</v>
-      </c>
-      <c r="O30" t="s">
-        <v>182</v>
-      </c>
-      <c r="P30" t="s">
-        <v>182</v>
       </c>
       <c r="Q30" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>182</v>
+      </c>
+      <c r="S30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>720</v>
       </c>
@@ -3955,29 +4306,35 @@
       <c r="J31" t="s">
         <v>313</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>477</v>
+      <c r="K31" t="s">
+        <v>87</v>
       </c>
       <c r="L31" t="s">
         <v>396</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="N31" t="s">
+        <v>396</v>
+      </c>
+      <c r="O31" t="s">
         <v>343</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>380</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>87</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>554</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24</v>
       </c>
@@ -4005,29 +4362,35 @@
       <c r="J32" t="s">
         <v>314</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" t="s">
+        <v>696</v>
+      </c>
+      <c r="L32" t="s">
+        <v>470</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
         <v>393</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>357</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>506</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>533</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>100</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="S32" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -4055,29 +4418,35 @@
       <c r="J33" t="s">
         <v>315</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" t="s">
+        <v>697</v>
+      </c>
+      <c r="L33" t="s">
+        <v>698</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>97</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>358</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>507</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>96</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>48</v>
       </c>
@@ -4105,29 +4474,35 @@
       <c r="J34" t="s">
         <v>316</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" t="s">
+        <v>699</v>
+      </c>
+      <c r="L34" t="s">
+        <v>700</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>404</v>
       </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
         <v>113</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>508</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>535</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>555</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="S34" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>60</v>
       </c>
@@ -4155,29 +4530,35 @@
       <c r="J35" t="s">
         <v>317</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" t="s">
+        <v>701</v>
+      </c>
+      <c r="L35" t="s">
+        <v>702</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>394</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>359</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>379</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>536</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>556</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>24</v>
       </c>
@@ -4199,29 +4580,35 @@
       <c r="J36" t="s">
         <v>664</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" t="s">
+        <v>703</v>
+      </c>
+      <c r="L36" t="s">
+        <v>704</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>307</v>
       </c>
-      <c r="M36" t="s">
+      <c r="O36" t="s">
         <v>174</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>221</v>
       </c>
-      <c r="O36" t="s">
+      <c r="Q36" t="s">
         <v>230</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>597</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4243,29 +4630,35 @@
       <c r="J37" t="s">
         <v>665</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" t="s">
+        <v>705</v>
+      </c>
+      <c r="L37" t="s">
+        <v>465</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>643</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>235</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>373</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
         <v>464</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>104</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>48</v>
       </c>
@@ -4287,29 +4680,35 @@
       <c r="J38" t="s">
         <v>666</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" t="s">
+        <v>705</v>
+      </c>
+      <c r="L38" t="s">
+        <v>706</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>644</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>181</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>389</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
         <v>553</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>298</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>60</v>
       </c>
@@ -4331,29 +4730,35 @@
       <c r="J39" t="s">
         <v>514</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" t="s">
+        <v>707</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>645</v>
       </c>
-      <c r="M39" t="s">
+      <c r="O39" t="s">
         <v>618</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>601</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q39" t="s">
         <v>566</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>108</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>24</v>
       </c>
@@ -4375,29 +4780,35 @@
       <c r="J40" t="s">
         <v>667</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" t="s">
+        <v>708</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>640</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O40" t="s">
         <v>619</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
         <v>569</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" t="s">
         <v>607</v>
       </c>
-      <c r="P40" t="s">
+      <c r="R40" t="s">
         <v>164</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="S40" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>96</v>
       </c>
@@ -4419,29 +4830,35 @@
       <c r="J41" t="s">
         <v>254</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" t="s">
+        <v>709</v>
+      </c>
+      <c r="L41" t="s">
+        <v>228</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>303</v>
       </c>
-      <c r="M41" t="s">
+      <c r="O41" t="s">
         <v>608</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
         <v>45</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>30</v>
       </c>
-      <c r="P41" t="s">
+      <c r="R41" t="s">
         <v>205</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="S41" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>192</v>
       </c>
@@ -4463,29 +4880,35 @@
       <c r="J42" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" t="s">
+        <v>710</v>
+      </c>
+      <c r="L42" t="s">
+        <v>484</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>641</v>
       </c>
-      <c r="M42" t="s">
+      <c r="O42" t="s">
         <v>620</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
         <v>602</v>
       </c>
-      <c r="O42" t="s">
+      <c r="Q42" t="s">
         <v>608</v>
       </c>
-      <c r="P42" t="s">
+      <c r="R42" t="s">
         <v>598</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="S42" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>336</v>
       </c>
@@ -4507,29 +4930,35 @@
       <c r="J43" t="s">
         <v>209</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" t="s">
+        <v>709</v>
+      </c>
+      <c r="L43" t="s">
+        <v>476</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
         <v>350</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>121</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>240</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" t="s">
         <v>609</v>
       </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
         <v>471</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="S43" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>720</v>
       </c>
@@ -4551,29 +4980,35 @@
       <c r="J44" t="s">
         <v>115</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" t="s">
+        <v>711</v>
+      </c>
+      <c r="L44" t="s">
+        <v>586</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" t="s">
         <v>642</v>
       </c>
-      <c r="M44" t="s">
+      <c r="O44" t="s">
         <v>621</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>208</v>
       </c>
-      <c r="O44" t="s">
+      <c r="Q44" t="s">
         <v>610</v>
       </c>
-      <c r="P44" t="s">
+      <c r="R44" t="s">
         <v>389</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="S44" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>24</v>
       </c>
@@ -4604,29 +5039,35 @@
       <c r="J45" t="s">
         <v>318</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>481</v>
+      <c r="K45" t="s">
+        <v>78</v>
       </c>
       <c r="L45" t="s">
         <v>182</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="N45" t="s">
+        <v>182</v>
+      </c>
+      <c r="O45" t="s">
         <v>180</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>180</v>
       </c>
-      <c r="O45" t="s">
+      <c r="Q45" t="s">
         <v>522</v>
       </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
         <v>128</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>96</v>
       </c>
@@ -4657,29 +5098,35 @@
       <c r="J46" t="s">
         <v>319</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" t="s">
+        <v>278</v>
+      </c>
+      <c r="L46" t="s">
+        <v>53</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>397</v>
       </c>
-      <c r="M46" t="s">
+      <c r="O46" t="s">
         <v>88</v>
       </c>
-      <c r="N46" t="s">
+      <c r="P46" t="s">
         <v>78</v>
       </c>
-      <c r="O46" t="s">
+      <c r="Q46" t="s">
         <v>55</v>
       </c>
-      <c r="P46" t="s">
+      <c r="R46" t="s">
         <v>547</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>192</v>
       </c>
@@ -4710,29 +5157,35 @@
       <c r="J47" t="s">
         <v>320</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" t="s">
+        <v>126</v>
+      </c>
+      <c r="L47" t="s">
+        <v>515</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
         <v>278</v>
       </c>
-      <c r="M47" t="s">
+      <c r="O47" t="s">
         <v>280</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>272</v>
       </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
         <v>273</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>557</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="S47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>336</v>
       </c>
@@ -4763,29 +5216,35 @@
       <c r="J48" t="s">
         <v>321</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>423</v>
+      <c r="K48" t="s">
+        <v>712</v>
       </c>
       <c r="L48" t="s">
         <v>173</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="N48" t="s">
+        <v>173</v>
+      </c>
+      <c r="O48" t="s">
         <v>81</v>
       </c>
-      <c r="N48" t="s">
+      <c r="P48" t="s">
         <v>351</v>
       </c>
-      <c r="O48" t="s">
+      <c r="Q48" t="s">
         <v>173</v>
       </c>
-      <c r="P48" t="s">
+      <c r="R48" t="s">
         <v>89</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="S48" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>720</v>
       </c>
@@ -4816,29 +5275,35 @@
       <c r="J49" t="s">
         <v>322</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" t="s">
+        <v>713</v>
+      </c>
+      <c r="L49" t="s">
+        <v>525</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
         <v>56</v>
       </c>
-      <c r="M49" t="s">
+      <c r="O49" t="s">
         <v>360</v>
       </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
         <v>89</v>
       </c>
-      <c r="O49" t="s">
+      <c r="Q49" t="s">
         <v>523</v>
       </c>
-      <c r="P49" t="s">
+      <c r="R49" t="s">
         <v>173</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="S49" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>24</v>
       </c>
@@ -4869,29 +5334,35 @@
       <c r="J50" t="s">
         <v>323</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" t="s">
+        <v>714</v>
+      </c>
+      <c r="L50" t="s">
+        <v>278</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>67</v>
       </c>
-      <c r="M50" t="s">
+      <c r="O50" t="s">
         <v>361</v>
       </c>
-      <c r="N50" t="s">
+      <c r="P50" t="s">
         <v>381</v>
       </c>
-      <c r="O50" t="s">
+      <c r="Q50" t="s">
         <v>310</v>
       </c>
-      <c r="P50" t="s">
+      <c r="R50" t="s">
         <v>272</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="S50" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>96</v>
       </c>
@@ -4922,29 +5393,35 @@
       <c r="J51" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" t="s">
+        <v>689</v>
+      </c>
+      <c r="L51" t="s">
+        <v>168</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L51" t="s">
+      <c r="N51" t="s">
         <v>251</v>
       </c>
-      <c r="M51" t="s">
+      <c r="O51" t="s">
         <v>362</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" t="s">
         <v>58</v>
       </c>
-      <c r="O51" t="s">
+      <c r="Q51" t="s">
         <v>354</v>
       </c>
-      <c r="P51" t="s">
+      <c r="R51" t="s">
         <v>558</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="S51" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>192</v>
       </c>
@@ -4975,29 +5452,35 @@
       <c r="J52" t="s">
         <v>111</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" t="s">
+        <v>620</v>
+      </c>
+      <c r="L52" t="s">
+        <v>118</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>164</v>
       </c>
-      <c r="M52" t="s">
+      <c r="O52" t="s">
         <v>363</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
         <v>118</v>
       </c>
-      <c r="O52" t="s">
+      <c r="Q52" t="s">
         <v>326</v>
       </c>
-      <c r="P52" t="s">
+      <c r="R52" t="s">
         <v>363</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="S52" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>336</v>
       </c>
@@ -5028,29 +5511,35 @@
       <c r="J53" t="s">
         <v>34</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" t="s">
+        <v>313</v>
+      </c>
+      <c r="L53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" t="s">
         <v>73</v>
       </c>
-      <c r="M53" t="s">
+      <c r="O53" t="s">
         <v>311</v>
       </c>
-      <c r="N53" t="s">
+      <c r="P53" t="s">
         <v>363</v>
       </c>
-      <c r="O53" t="s">
+      <c r="Q53" t="s">
         <v>118</v>
       </c>
-      <c r="P53" t="s">
+      <c r="R53" t="s">
         <v>345</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="S53" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>720</v>
       </c>
@@ -5081,29 +5570,35 @@
       <c r="J54" t="s">
         <v>324</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" t="s">
+        <v>610</v>
+      </c>
+      <c r="L54" t="s">
+        <v>580</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="L54" t="s">
+      <c r="N54" t="s">
         <v>124</v>
       </c>
-      <c r="M54" t="s">
+      <c r="O54" t="s">
         <v>170</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
         <v>169</v>
       </c>
-      <c r="O54" t="s">
+      <c r="Q54" t="s">
         <v>459</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>559</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="S54" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>24</v>
       </c>
@@ -5134,17 +5629,17 @@
       <c r="J55" t="s">
         <v>162</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" t="s">
+        <v>128</v>
+      </c>
+      <c r="L55" t="s">
+        <v>266</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>86</v>
-      </c>
-      <c r="M55" t="s">
-        <v>348</v>
-      </c>
-      <c r="N55" t="s">
-        <v>348</v>
       </c>
       <c r="O55" t="s">
         <v>348</v>
@@ -5153,10 +5648,16 @@
         <v>348</v>
       </c>
       <c r="Q55" t="s">
+        <v>348</v>
+      </c>
+      <c r="R55" t="s">
+        <v>348</v>
+      </c>
+      <c r="S55" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>96</v>
       </c>
@@ -5187,29 +5688,35 @@
       <c r="J56" t="s">
         <v>325</v>
       </c>
-      <c r="K56" s="4" t="s">
-        <v>488</v>
+      <c r="K56" t="s">
+        <v>715</v>
       </c>
       <c r="L56" t="s">
         <v>380</v>
       </c>
-      <c r="M56" t="s">
-        <v>180</v>
+      <c r="M56" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="N56" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="O56" t="s">
         <v>180</v>
       </c>
       <c r="P56" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q56" t="s">
         <v>180</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
+        <v>180</v>
+      </c>
+      <c r="S56" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>192</v>
       </c>
@@ -5240,29 +5747,35 @@
       <c r="J57" t="s">
         <v>65</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" t="s">
+        <v>561</v>
+      </c>
+      <c r="L57" t="s">
+        <v>429</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>171</v>
-      </c>
-      <c r="M57" t="s">
-        <v>344</v>
-      </c>
-      <c r="N57" t="s">
-        <v>382</v>
       </c>
       <c r="O57" t="s">
         <v>344</v>
       </c>
       <c r="P57" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>344</v>
+      </c>
+      <c r="R57" t="s">
         <v>560</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="S57" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>336</v>
       </c>
@@ -5293,29 +5806,35 @@
       <c r="J58" t="s">
         <v>122</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" t="s">
+        <v>176</v>
+      </c>
+      <c r="L58" t="s">
+        <v>384</v>
+      </c>
+      <c r="M58" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>277</v>
-      </c>
-      <c r="M58" t="s">
-        <v>78</v>
-      </c>
-      <c r="N58" t="s">
-        <v>383</v>
       </c>
       <c r="O58" t="s">
         <v>78</v>
       </c>
       <c r="P58" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>78</v>
+      </c>
+      <c r="R58" t="s">
         <v>561</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="S58" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>720</v>
       </c>
@@ -5346,29 +5865,35 @@
       <c r="J59" t="s">
         <v>107</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" t="s">
+        <v>360</v>
+      </c>
+      <c r="L59" t="s">
+        <v>67</v>
+      </c>
+      <c r="M59" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>172</v>
       </c>
-      <c r="M59" t="s">
+      <c r="O59" t="s">
         <v>278</v>
       </c>
-      <c r="N59" t="s">
+      <c r="P59" t="s">
         <v>273</v>
       </c>
-      <c r="O59" t="s">
+      <c r="Q59" t="s">
         <v>361</v>
       </c>
-      <c r="P59" t="s">
+      <c r="R59" t="s">
         <v>280</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="S59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>24</v>
       </c>
@@ -5399,29 +5924,35 @@
       <c r="J60" t="s">
         <v>56</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>46</v>
+      <c r="K60" t="s">
+        <v>245</v>
       </c>
       <c r="L60" t="s">
         <v>197</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N60" t="s">
+        <v>197</v>
+      </c>
+      <c r="O60" t="s">
         <v>179</v>
       </c>
-      <c r="N60" t="s">
+      <c r="P60" t="s">
         <v>340</v>
       </c>
-      <c r="O60" t="s">
+      <c r="Q60" t="s">
         <v>524</v>
       </c>
-      <c r="P60" t="s">
+      <c r="R60" t="s">
         <v>180</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="S60" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>96</v>
       </c>
@@ -5452,29 +5983,35 @@
       <c r="J61" t="s">
         <v>326</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" t="s">
+        <v>331</v>
+      </c>
+      <c r="L61" t="s">
+        <v>515</v>
+      </c>
+      <c r="M61" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="L61" t="s">
+      <c r="N61" t="s">
         <v>361</v>
-      </c>
-      <c r="M61" t="s">
-        <v>176</v>
-      </c>
-      <c r="N61" t="s">
-        <v>384</v>
       </c>
       <c r="O61" t="s">
         <v>176</v>
       </c>
       <c r="P61" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>176</v>
+      </c>
+      <c r="R61" t="s">
         <v>272</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="S61" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>192</v>
       </c>
@@ -5505,29 +6042,35 @@
       <c r="J62" t="s">
         <v>114</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" t="s">
+        <v>372</v>
+      </c>
+      <c r="L62" t="s">
+        <v>716</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="L62" t="s">
+      <c r="N62" t="s">
         <v>341</v>
       </c>
-      <c r="M62" t="s">
+      <c r="O62" t="s">
         <v>56</v>
       </c>
-      <c r="N62" t="s">
+      <c r="P62" t="s">
         <v>330</v>
       </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
         <v>525</v>
       </c>
-      <c r="P62" t="s">
+      <c r="R62" t="s">
         <v>562</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="S62" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>336</v>
       </c>
@@ -5558,29 +6101,35 @@
       <c r="J63" t="s">
         <v>174</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" t="s">
+        <v>580</v>
+      </c>
+      <c r="L63" t="s">
+        <v>354</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="L63" t="s">
+      <c r="N63" t="s">
         <v>168</v>
       </c>
-      <c r="M63" t="s">
+      <c r="O63" t="s">
         <v>72</v>
       </c>
-      <c r="N63" t="s">
+      <c r="P63" t="s">
         <v>342</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
         <v>82</v>
       </c>
-      <c r="P63" t="s">
+      <c r="R63" t="s">
         <v>72</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="S63" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>720</v>
       </c>
@@ -5611,29 +6160,35 @@
       <c r="J64" t="s">
         <v>327</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" t="s">
+        <v>174</v>
+      </c>
+      <c r="L64" t="s">
+        <v>254</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" t="s">
         <v>123</v>
       </c>
-      <c r="M64" t="s">
+      <c r="O64" t="s">
         <v>364</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P64" t="s">
         <v>337</v>
       </c>
-      <c r="O64" t="s">
+      <c r="Q64" t="s">
         <v>345</v>
       </c>
-      <c r="P64" t="s">
+      <c r="R64" t="s">
         <v>563</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="S64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>24</v>
       </c>
@@ -5664,29 +6219,35 @@
       <c r="J65" t="s">
         <v>87</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" t="s">
+        <v>360</v>
+      </c>
+      <c r="L65" t="s">
+        <v>669</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>276</v>
       </c>
-      <c r="M65" t="s">
+      <c r="O65" t="s">
         <v>343</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
         <v>180</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
         <v>526</v>
       </c>
-      <c r="P65" t="s">
+      <c r="R65" t="s">
         <v>524</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="S65" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>96</v>
       </c>
@@ -5717,29 +6278,35 @@
       <c r="J66" t="s">
         <v>68</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" t="s">
+        <v>717</v>
+      </c>
+      <c r="L66" t="s">
+        <v>310</v>
+      </c>
+      <c r="M66" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="L66" t="s">
+      <c r="N66" t="s">
         <v>342</v>
       </c>
-      <c r="M66" t="s">
+      <c r="O66" t="s">
         <v>306</v>
       </c>
-      <c r="N66" t="s">
+      <c r="P66" t="s">
         <v>385</v>
       </c>
-      <c r="O66" t="s">
+      <c r="Q66" t="s">
         <v>527</v>
       </c>
-      <c r="P66" t="s">
+      <c r="R66" t="s">
         <v>173</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="S66" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>192</v>
       </c>
@@ -5770,29 +6337,35 @@
       <c r="J67" t="s">
         <v>121</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" t="s">
+        <v>673</v>
+      </c>
+      <c r="L67" t="s">
+        <v>284</v>
+      </c>
+      <c r="M67" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" t="s">
         <v>114</v>
       </c>
-      <c r="M67" t="s">
+      <c r="O67" t="s">
         <v>222</v>
       </c>
-      <c r="N67" t="s">
+      <c r="P67" t="s">
         <v>70</v>
       </c>
-      <c r="O67" t="s">
+      <c r="Q67" t="s">
         <v>528</v>
       </c>
-      <c r="P67" t="s">
+      <c r="R67" t="s">
         <v>94</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="S67" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>336</v>
       </c>
@@ -5823,29 +6396,35 @@
       <c r="J68" t="s">
         <v>328</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" t="s">
+        <v>718</v>
+      </c>
+      <c r="L68" t="s">
+        <v>236</v>
+      </c>
+      <c r="M68" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="L68" t="s">
+      <c r="N68" t="s">
         <v>398</v>
       </c>
-      <c r="M68" t="s">
+      <c r="O68" t="s">
         <v>117</v>
       </c>
-      <c r="N68" t="s">
+      <c r="P68" t="s">
         <v>358</v>
       </c>
-      <c r="O68" t="s">
+      <c r="Q68" t="s">
         <v>391</v>
       </c>
-      <c r="P68" t="s">
+      <c r="R68" t="s">
         <v>202</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="S68" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>720</v>
       </c>
@@ -5876,29 +6455,35 @@
       <c r="J69" t="s">
         <v>329</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" t="s">
+        <v>719</v>
+      </c>
+      <c r="L69" t="s">
+        <v>720</v>
+      </c>
+      <c r="M69" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="L69" t="s">
+      <c r="N69" t="s">
         <v>399</v>
       </c>
-      <c r="M69" t="s">
+      <c r="O69" t="s">
         <v>365</v>
       </c>
-      <c r="N69" t="s">
+      <c r="P69" t="s">
         <v>371</v>
       </c>
-      <c r="O69" t="s">
+      <c r="Q69" t="s">
         <v>529</v>
       </c>
-      <c r="P69" t="s">
+      <c r="R69" t="s">
         <v>564</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="S69" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>24</v>
       </c>
@@ -5926,29 +6511,35 @@
       <c r="J70" t="s">
         <v>330</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>498</v>
+      <c r="K70" t="s">
+        <v>184</v>
       </c>
       <c r="L70" t="s">
         <v>184</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="N70" t="s">
         <v>184</v>
-      </c>
-      <c r="N70" t="s">
-        <v>157</v>
       </c>
       <c r="O70" t="s">
         <v>184</v>
       </c>
       <c r="P70" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q70" t="s">
         <v>184</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
+        <v>184</v>
+      </c>
+      <c r="S70" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>96</v>
       </c>
@@ -5976,17 +6567,17 @@
       <c r="J71" t="s">
         <v>241</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" t="s">
+        <v>184</v>
+      </c>
+      <c r="L71" t="s">
+        <v>184</v>
+      </c>
+      <c r="M71" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>159</v>
-      </c>
-      <c r="M71" t="s">
-        <v>184</v>
-      </c>
-      <c r="N71" t="s">
-        <v>184</v>
       </c>
       <c r="O71" t="s">
         <v>184</v>
@@ -5997,8 +6588,14 @@
       <c r="Q71" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" t="s">
+        <v>184</v>
+      </c>
+      <c r="S71" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>192</v>
       </c>
@@ -6026,20 +6623,20 @@
       <c r="J72" t="s">
         <v>331</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>499</v>
+      <c r="K72" t="s">
+        <v>159</v>
       </c>
       <c r="L72" t="s">
         <v>159</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="N72" t="s">
+        <v>159</v>
+      </c>
+      <c r="O72" t="s">
         <v>184</v>
-      </c>
-      <c r="N72" t="s">
-        <v>184</v>
-      </c>
-      <c r="O72" t="s">
-        <v>159</v>
       </c>
       <c r="P72" t="s">
         <v>184</v>
@@ -6047,8 +6644,14 @@
       <c r="Q72" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" t="s">
+        <v>184</v>
+      </c>
+      <c r="S72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>336</v>
       </c>
@@ -6076,29 +6679,35 @@
       <c r="J73" t="s">
         <v>332</v>
       </c>
-      <c r="K73" s="4" t="s">
-        <v>300</v>
+      <c r="K73" t="s">
+        <v>159</v>
       </c>
       <c r="L73" t="s">
         <v>159</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N73" t="s">
         <v>159</v>
-      </c>
-      <c r="N73" t="s">
-        <v>184</v>
       </c>
       <c r="O73" t="s">
         <v>159</v>
       </c>
       <c r="P73" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="Q73" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" t="s">
+        <v>159</v>
+      </c>
+      <c r="S73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>720</v>
       </c>
@@ -6126,14 +6735,14 @@
       <c r="J74" t="s">
         <v>333</v>
       </c>
-      <c r="K74" s="4" t="s">
-        <v>500</v>
+      <c r="K74" t="s">
+        <v>159</v>
       </c>
       <c r="L74" t="s">
         <v>159</v>
       </c>
-      <c r="M74" t="s">
-        <v>159</v>
+      <c r="M74" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="N74" t="s">
         <v>159</v>
@@ -6147,8 +6756,14 @@
       <c r="Q74" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74" t="s">
+        <v>159</v>
+      </c>
+      <c r="S74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>24</v>
       </c>
@@ -6179,29 +6794,35 @@
       <c r="J75" t="s">
         <v>314</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="K75" t="s">
+        <v>696</v>
+      </c>
+      <c r="L75" t="s">
+        <v>721</v>
+      </c>
+      <c r="M75" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>400</v>
       </c>
-      <c r="M75" t="s">
+      <c r="O75" t="s">
         <v>125</v>
       </c>
-      <c r="N75" t="s">
+      <c r="P75" t="s">
         <v>509</v>
       </c>
-      <c r="O75" t="s">
+      <c r="Q75" t="s">
         <v>530</v>
       </c>
-      <c r="P75" t="s">
+      <c r="R75" t="s">
         <v>565</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="S75" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>36</v>
       </c>
@@ -6232,29 +6853,35 @@
       <c r="J76" t="s">
         <v>334</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" t="s">
+        <v>697</v>
+      </c>
+      <c r="L76" t="s">
+        <v>722</v>
+      </c>
+      <c r="M76" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>401</v>
       </c>
-      <c r="M76" t="s">
+      <c r="O76" t="s">
         <v>366</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
         <v>510</v>
       </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
         <v>531</v>
       </c>
-      <c r="P76" t="s">
+      <c r="R76" t="s">
         <v>487</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="S76" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>48</v>
       </c>
@@ -6285,29 +6912,35 @@
       <c r="J77" t="s">
         <v>316</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" t="s">
+        <v>699</v>
+      </c>
+      <c r="L77" t="s">
+        <v>403</v>
+      </c>
+      <c r="M77" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>402</v>
       </c>
-      <c r="M77" t="s">
+      <c r="O77" t="s">
         <v>367</v>
       </c>
-      <c r="N77" t="s">
+      <c r="P77" t="s">
         <v>511</v>
       </c>
-      <c r="O77" t="s">
+      <c r="Q77" t="s">
         <v>462</v>
       </c>
-      <c r="P77" t="s">
+      <c r="R77" t="s">
         <v>566</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="S77" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>60</v>
       </c>
@@ -6338,29 +6971,35 @@
       <c r="J78" t="s">
         <v>317</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" t="s">
+        <v>701</v>
+      </c>
+      <c r="L78" t="s">
+        <v>723</v>
+      </c>
+      <c r="M78" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78" t="s">
         <v>403</v>
       </c>
-      <c r="M78" t="s">
+      <c r="O78" t="s">
         <v>368</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
         <v>512</v>
       </c>
-      <c r="O78" t="s">
+      <c r="Q78" t="s">
         <v>532</v>
       </c>
-      <c r="P78" t="s">
+      <c r="R78" t="s">
         <v>567</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="S78" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>24</v>
       </c>
@@ -6382,29 +7021,35 @@
       <c r="J79" t="s">
         <v>668</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" t="s">
+        <v>724</v>
+      </c>
+      <c r="L79" t="s">
+        <v>725</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79" t="s">
         <v>629</v>
       </c>
-      <c r="M79" t="s">
+      <c r="O79" t="s">
         <v>342</v>
       </c>
-      <c r="N79" t="s">
+      <c r="P79" t="s">
         <v>603</v>
       </c>
-      <c r="O79" t="s">
+      <c r="Q79" t="s">
         <v>611</v>
       </c>
-      <c r="P79" t="s">
+      <c r="R79" t="s">
         <v>395</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="S79" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>36</v>
       </c>
@@ -6426,29 +7071,35 @@
       <c r="J80" t="s">
         <v>297</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="K80" t="s">
+        <v>726</v>
+      </c>
+      <c r="L80" t="s">
+        <v>552</v>
+      </c>
+      <c r="M80" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>646</v>
       </c>
-      <c r="M80" t="s">
+      <c r="O80" t="s">
         <v>622</v>
       </c>
-      <c r="N80" t="s">
+      <c r="P80" t="s">
         <v>597</v>
       </c>
-      <c r="O80" t="s">
+      <c r="Q80" t="s">
         <v>236</v>
       </c>
-      <c r="P80" t="s">
+      <c r="R80" t="s">
         <v>274</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="S80" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>48</v>
       </c>
@@ -6470,29 +7121,35 @@
       <c r="J81" t="s">
         <v>373</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" t="s">
+        <v>727</v>
+      </c>
+      <c r="L81" t="s">
+        <v>552</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
         <v>555</v>
       </c>
-      <c r="M81" t="s">
+      <c r="O81" t="s">
         <v>244</v>
       </c>
-      <c r="N81" t="s">
+      <c r="P81" t="s">
         <v>471</v>
       </c>
-      <c r="O81" t="s">
+      <c r="Q81" t="s">
         <v>612</v>
       </c>
-      <c r="P81" t="s">
+      <c r="R81" t="s">
         <v>283</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="S81" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>60</v>
       </c>
@@ -6514,29 +7171,35 @@
       <c r="J82" t="s">
         <v>600</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" t="s">
+        <v>728</v>
+      </c>
+      <c r="L82" t="s">
+        <v>729</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>647</v>
       </c>
-      <c r="M82" t="s">
+      <c r="O82" t="s">
         <v>306</v>
       </c>
-      <c r="N82" t="s">
+      <c r="P82" t="s">
         <v>605</v>
       </c>
-      <c r="O82" t="s">
+      <c r="Q82" t="s">
         <v>613</v>
       </c>
-      <c r="P82" t="s">
+      <c r="R82" t="s">
         <v>337</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="S82" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>24</v>
       </c>
@@ -6558,29 +7221,35 @@
       <c r="J83" t="s">
         <v>669</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" t="s">
+        <v>730</v>
+      </c>
+      <c r="L83" t="s">
+        <v>495</v>
+      </c>
+      <c r="M83" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>168</v>
       </c>
-      <c r="M83" t="s">
+      <c r="O83" t="s">
         <v>623</v>
       </c>
-      <c r="N83" t="s">
+      <c r="P83" t="s">
         <v>606</v>
       </c>
-      <c r="O83" t="s">
+      <c r="Q83" t="s">
         <v>54</v>
       </c>
-      <c r="P83" t="s">
+      <c r="R83" t="s">
         <v>557</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="S83" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>96</v>
       </c>
@@ -6602,29 +7271,35 @@
       <c r="J84" t="s">
         <v>330</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" t="s">
+        <v>731</v>
+      </c>
+      <c r="L84" t="s">
+        <v>238</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
         <v>516</v>
       </c>
-      <c r="M84" t="s">
+      <c r="O84" t="s">
         <v>257</v>
       </c>
-      <c r="N84" t="s">
+      <c r="P84" t="s">
         <v>216</v>
       </c>
-      <c r="O84" t="s">
+      <c r="Q84" t="s">
         <v>517</v>
       </c>
-      <c r="P84" t="s">
+      <c r="R84" t="s">
         <v>545</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="S84" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>192</v>
       </c>
@@ -6646,29 +7321,35 @@
       <c r="J85" t="s">
         <v>667</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" t="s">
+        <v>732</v>
+      </c>
+      <c r="L85" t="s">
+        <v>733</v>
+      </c>
+      <c r="M85" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>94</v>
       </c>
-      <c r="M85" t="s">
+      <c r="O85" t="s">
         <v>363</v>
       </c>
-      <c r="N85" t="s">
+      <c r="P85" t="s">
         <v>110</v>
       </c>
-      <c r="O85" t="s">
+      <c r="Q85" t="s">
         <v>614</v>
       </c>
-      <c r="P85" t="s">
+      <c r="R85" t="s">
         <v>599</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="S85" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>336</v>
       </c>
@@ -6690,29 +7371,35 @@
       <c r="J86" t="s">
         <v>670</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" t="s">
+        <v>734</v>
+      </c>
+      <c r="L86" t="s">
+        <v>574</v>
+      </c>
+      <c r="M86" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
         <v>352</v>
       </c>
-      <c r="M86" t="s">
+      <c r="O86" t="s">
         <v>221</v>
       </c>
-      <c r="N86" t="s">
+      <c r="P86" t="s">
         <v>349</v>
       </c>
-      <c r="O86" t="s">
+      <c r="Q86" t="s">
         <v>346</v>
       </c>
-      <c r="P86" t="s">
+      <c r="R86" t="s">
         <v>559</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="S86" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>720</v>
       </c>
@@ -6734,25 +7421,31 @@
       <c r="J87" t="s">
         <v>671</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" t="s">
+        <v>735</v>
+      </c>
+      <c r="L87" t="s">
+        <v>736</v>
+      </c>
+      <c r="M87" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="L87" t="s">
-        <v>602</v>
-      </c>
-      <c r="M87" t="s">
-        <v>181</v>
       </c>
       <c r="N87" t="s">
         <v>602</v>
       </c>
       <c r="O87" t="s">
+        <v>181</v>
+      </c>
+      <c r="P87" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q87" t="s">
         <v>45</v>
       </c>
-      <c r="P87" t="s">
+      <c r="R87" t="s">
         <v>600</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="S87" t="s">
         <v>659</v>
       </c>
     </row>

--- a/Experiment_results/xlsx_format/ex_uni_all.xlsx
+++ b/Experiment_results/xlsx_format/ex_uni_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7FB2F1-BBA5-4EF3-B0A6-4D43AFCD52EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8235CBA-AA8E-4273-9759-530606CC5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="733">
   <si>
     <t>ETTh1</t>
   </si>
@@ -633,9 +633,6 @@
     <t>0.0003</t>
   </si>
   <si>
-    <t>0.0008</t>
-  </si>
-  <si>
     <t>0.350</t>
   </si>
   <si>
@@ -687,15 +684,9 @@
     <t>0.143</t>
   </si>
   <si>
-    <t>0.498</t>
-  </si>
-  <si>
     <t>0.831</t>
   </si>
   <si>
-    <t>1.286</t>
-  </si>
-  <si>
     <t>0.170</t>
   </si>
   <si>
@@ -837,9 +828,6 @@
     <t>0.012</t>
   </si>
   <si>
-    <t>0.21</t>
-  </si>
-  <si>
     <t>0.510</t>
   </si>
   <si>
@@ -897,9 +885,6 @@
     <t>1.676</t>
   </si>
   <si>
-    <t>0.0009</t>
-  </si>
-  <si>
     <t>0.543</t>
   </si>
   <si>
@@ -2245,6 +2230,9 @@
   </si>
   <si>
     <t>0.412</t>
+  </si>
+  <si>
+    <t>1.291</t>
   </si>
 </sst>
 </file>
@@ -2575,7 +2563,7 @@
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L87"/>
+      <selection activeCell="S87" sqref="G1:S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2609,49 +2597,49 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L1" t="s">
+        <v>676</v>
+      </c>
+      <c r="M1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" t="s">
+        <v>532</v>
+      </c>
+      <c r="O1" t="s">
+        <v>401</v>
+      </c>
+      <c r="P1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q1" t="s">
         <v>538</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>539</v>
       </c>
-      <c r="I1" t="s">
-        <v>540</v>
-      </c>
-      <c r="J1" t="s">
-        <v>541</v>
-      </c>
-      <c r="K1" t="s">
-        <v>680</v>
-      </c>
-      <c r="L1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M1" t="s">
-        <v>408</v>
-      </c>
-      <c r="N1" t="s">
-        <v>537</v>
-      </c>
-      <c r="O1" t="s">
-        <v>406</v>
-      </c>
-      <c r="P1" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>543</v>
-      </c>
-      <c r="R1" t="s">
-        <v>544</v>
-      </c>
       <c r="S1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -2668,46 +2656,46 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
         <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
         <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O2" t="s">
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="R2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="S2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -2724,28 +2712,28 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G3" t="s">
         <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L3" t="s">
         <v>164</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="N3" t="s">
         <v>118</v>
@@ -2754,16 +2742,16 @@
         <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="R3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="S3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2780,28 +2768,28 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
         <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="N4" t="s">
         <v>70</v>
@@ -2810,13 +2798,13 @@
         <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Q4" t="s">
         <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="S4" t="s">
         <v>46</v>
@@ -2836,34 +2824,34 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
         <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L5" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="N5" t="s">
         <v>161</v>
       </c>
       <c r="O5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P5" t="s">
         <v>112</v>
@@ -2872,10 +2860,10 @@
         <v>183</v>
       </c>
       <c r="R5" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="S5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2892,31 +2880,31 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K6" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O6" t="s">
         <v>85</v>
@@ -2928,10 +2916,10 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2948,19 +2936,19 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K7" t="s">
         <v>122</v>
@@ -2969,13 +2957,13 @@
         <v>70</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" t="s">
         <v>170</v>
       </c>
       <c r="O7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P7" t="s">
         <v>123</v>
@@ -2984,10 +2972,10 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -3004,46 +2992,46 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J8" t="s">
         <v>119</v>
       </c>
       <c r="K8" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P8" t="s">
         <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="R8" t="s">
         <v>163</v>
       </c>
       <c r="S8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -3060,46 +3048,46 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G9" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K9" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="L9" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="O9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P9" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="S9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3116,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G10" t="s">
         <v>65</v>
@@ -3128,31 +3116,31 @@
         <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K10" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O10" t="s">
         <v>105</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="R10" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="S10" t="s">
         <v>129</v>
@@ -3172,46 +3160,46 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G11" t="s">
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I11" t="s">
         <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N11" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="R11" t="s">
         <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -3228,43 +3216,43 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G12" t="s">
         <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I12" t="s">
         <v>89</v>
       </c>
       <c r="J12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K12" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="L12" t="s">
         <v>81</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="N12" t="s">
         <v>172</v>
       </c>
       <c r="O12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="R12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S12" t="s">
         <v>89</v>
@@ -3284,46 +3272,46 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G13" t="s">
         <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J13" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K13" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L13" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="N13" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="O13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q13" t="s">
         <v>82</v>
       </c>
       <c r="R13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="S13" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3340,46 +3328,46 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K14" t="s">
         <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="N14" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O14" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="R14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="S14" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3396,43 +3384,43 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G15" t="s">
         <v>70</v>
       </c>
       <c r="H15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" t="s">
         <v>212</v>
       </c>
-      <c r="I15" t="s">
-        <v>213</v>
-      </c>
       <c r="J15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K15" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="L15" t="s">
         <v>169</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N15" t="s">
         <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P15" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="R15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="S15" t="s">
         <v>60</v>
@@ -3452,7 +3440,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -3464,31 +3452,31 @@
         <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L16" t="s">
         <v>73</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O16" t="s">
         <v>61</v>
       </c>
       <c r="P16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q16" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="R16" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="S16" t="s">
         <v>85</v>
@@ -3508,46 +3496,46 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J17" t="s">
         <v>123</v>
       </c>
       <c r="K17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L17" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N17" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="O17" t="s">
         <v>166</v>
       </c>
       <c r="P17" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="R17" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="S17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3564,28 +3552,28 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I18" t="s">
         <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K18" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="L18" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="N18" t="s">
         <v>60</v>
@@ -3594,16 +3582,16 @@
         <v>164</v>
       </c>
       <c r="P18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q18" t="s">
         <v>169</v>
       </c>
       <c r="R18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S18" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3620,7 +3608,7 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G19" t="s">
         <v>74</v>
@@ -3632,22 +3620,22 @@
         <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K19" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="L19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P19" t="s">
         <v>30</v>
@@ -3676,7 +3664,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G20" t="s">
         <v>75</v>
@@ -3688,31 +3676,31 @@
         <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N20" t="s">
         <v>104</v>
       </c>
       <c r="O20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P20" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S20" t="s">
         <v>76</v>
@@ -3732,46 +3720,46 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G21" t="s">
         <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="N21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O21" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q21" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="R21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S21" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -3788,43 +3776,43 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G22" t="s">
         <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K22" t="s">
         <v>73</v>
       </c>
       <c r="L22" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O22" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="R22" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="S22" t="s">
         <v>90</v>
@@ -3847,28 +3835,28 @@
         <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>115</v>
+        <v>610</v>
       </c>
       <c r="I23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
         <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L23" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N23" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O23" t="s">
         <v>181</v>
@@ -3877,13 +3865,13 @@
         <v>161</v>
       </c>
       <c r="Q23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="R23" t="s">
         <v>73</v>
       </c>
       <c r="S23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -3906,34 +3894,34 @@
         <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="I24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K24" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="L24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N24" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O24" t="s">
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q24" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="R24" t="s">
         <v>75</v>
@@ -3956,46 +3944,46 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G25" t="s">
         <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K25" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="L25" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N25" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O25" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P25" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q25" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="R25" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="S25" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -4012,46 +4000,46 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G26" t="s">
         <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>219</v>
+        <v>732</v>
       </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K26" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="L26" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="N26" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O26" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P26" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q26" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="R26" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="S26" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -4068,7 +4056,7 @@
         <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G27" t="s">
         <v>160</v>
@@ -4077,19 +4065,19 @@
         <v>177</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J27" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="L27" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="N27" t="s">
         <v>179</v>
@@ -4098,16 +4086,16 @@
         <v>179</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q27" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="R27" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="S27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -4124,19 +4112,19 @@
         <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G28" t="s">
         <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="J28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K28" t="s">
         <v>77</v>
@@ -4151,19 +4139,19 @@
         <v>127</v>
       </c>
       <c r="O28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P28" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q28" t="s">
         <v>128</v>
       </c>
       <c r="R28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -4180,28 +4168,28 @@
         <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G29" t="s">
         <v>196</v>
       </c>
       <c r="H29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I29" t="s">
         <v>180</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L29" t="s">
         <v>182</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="N29" t="s">
         <v>182</v>
@@ -4236,19 +4224,19 @@
         <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G30" t="s">
         <v>128</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I30" t="s">
         <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K30" t="s">
         <v>182</v>
@@ -4257,7 +4245,7 @@
         <v>91</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="N30" t="s">
         <v>91</v>
@@ -4292,46 +4280,46 @@
         <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G31" t="s">
         <v>197</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I31" t="s">
         <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s">
         <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O31" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P31" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q31" t="s">
         <v>87</v>
       </c>
       <c r="R31" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="S31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -4354,40 +4342,40 @@
         <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="L32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="N32" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O32" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Q32" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="R32" t="s">
         <v>100</v>
       </c>
       <c r="S32" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -4410,40 +4398,40 @@
         <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="L33" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="N33" t="s">
         <v>97</v>
       </c>
       <c r="O33" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P33" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="R33" t="s">
         <v>96</v>
       </c>
       <c r="S33" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -4466,40 +4454,40 @@
         <v>98</v>
       </c>
       <c r="H34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="L34" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O34" t="s">
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q34" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="R34" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="S34" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -4522,40 +4510,40 @@
         <v>99</v>
       </c>
       <c r="H35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L35" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N35" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="O35" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P35" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q35" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="R35" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="S35" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -4563,7 +4551,7 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -4575,37 +4563,37 @@
         <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J36" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K36" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="L36" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="N36" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s">
         <v>174</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R36" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="S36" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -4613,49 +4601,49 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H37" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J37" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K37" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="L37" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="N37" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P37" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q37" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="R37" t="s">
         <v>104</v>
       </c>
       <c r="S37" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -4663,49 +4651,49 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H38" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="I38" t="s">
         <v>109</v>
       </c>
       <c r="J38" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="K38" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="L38" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="N38" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="O38" t="s">
         <v>181</v>
       </c>
       <c r="P38" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q38" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="R38" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S38" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -4713,49 +4701,49 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H39" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I39" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J39" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K39" t="s">
         <v>13</v>
       </c>
       <c r="L39" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N39" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="O39" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="P39" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="Q39" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="R39" t="s">
         <v>108</v>
       </c>
       <c r="S39" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -4763,49 +4751,49 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I40" t="s">
         <v>83</v>
       </c>
       <c r="J40" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="K40" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L40" t="s">
         <v>33</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="N40" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="O40" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="P40" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="Q40" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="R40" t="s">
         <v>164</v>
       </c>
       <c r="S40" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -4813,37 +4801,37 @@
         <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H41" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K41" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O41" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="P41" t="s">
         <v>45</v>
@@ -4852,10 +4840,10 @@
         <v>30</v>
       </c>
       <c r="R41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S41" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -4863,49 +4851,49 @@
         <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H42" t="s">
         <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J42" t="s">
         <v>85</v>
       </c>
       <c r="K42" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="L42" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N42" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="O42" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="P42" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q42" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="R42" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="S42" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -4913,49 +4901,49 @@
         <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="G43" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" t="s">
+        <v>372</v>
+      </c>
+      <c r="I43" t="s">
         <v>313</v>
       </c>
-      <c r="H43" t="s">
-        <v>377</v>
-      </c>
-      <c r="I43" t="s">
-        <v>318</v>
-      </c>
       <c r="J43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K43" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L43" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="N43" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s">
         <v>121</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q43" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="R43" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="S43" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -4963,49 +4951,49 @@
         <v>720</v>
       </c>
       <c r="B44" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H44" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
         <v>115</v>
       </c>
       <c r="K44" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L44" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="N44" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="O44" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q44" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="R44" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="S44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -5022,7 +5010,7 @@
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F45" t="s">
         <v>138</v>
@@ -5031,13 +5019,13 @@
         <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I45" t="s">
         <v>197</v>
       </c>
       <c r="J45" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
         <v>78</v>
@@ -5046,7 +5034,7 @@
         <v>182</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N45" t="s">
         <v>182</v>
@@ -5058,7 +5046,7 @@
         <v>180</v>
       </c>
       <c r="Q45" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="R45" t="s">
         <v>128</v>
@@ -5081,10 +5069,10 @@
         <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G46" t="s">
         <v>78</v>
@@ -5096,19 +5084,19 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K46" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s">
         <v>53</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N46" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s">
         <v>88</v>
@@ -5120,7 +5108,7 @@
         <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="S46" t="s">
         <v>80</v>
@@ -5140,7 +5128,7 @@
         <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F47" t="s">
         <v>139</v>
@@ -5149,37 +5137,37 @@
         <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I47" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="J47" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K47" t="s">
         <v>126</v>
       </c>
       <c r="L47" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="N47" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O47" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q47" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R47" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="S47" t="s">
         <v>92</v>
@@ -5199,7 +5187,7 @@
         <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F48" t="s">
         <v>140</v>
@@ -5208,22 +5196,22 @@
         <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J48" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K48" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L48" t="s">
         <v>173</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s">
         <v>173</v>
@@ -5232,7 +5220,7 @@
         <v>81</v>
       </c>
       <c r="P48" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q48" t="s">
         <v>173</v>
@@ -5241,7 +5229,7 @@
         <v>89</v>
       </c>
       <c r="S48" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -5258,7 +5246,7 @@
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F49" t="s">
         <v>141</v>
@@ -5267,40 +5255,40 @@
         <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I49" t="s">
         <v>166</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K49" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L49" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N49" t="s">
         <v>56</v>
       </c>
       <c r="O49" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P49" t="s">
         <v>89</v>
       </c>
       <c r="Q49" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="R49" t="s">
         <v>173</v>
       </c>
       <c r="S49" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -5317,7 +5305,7 @@
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F50" t="s">
         <v>142</v>
@@ -5326,40 +5314,40 @@
         <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I50" t="s">
         <v>167</v>
       </c>
       <c r="J50" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K50" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="L50" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="N50" t="s">
         <v>67</v>
       </c>
       <c r="O50" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P50" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q50" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="R50" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="S50" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -5376,7 +5364,7 @@
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F51" t="s">
         <v>143</v>
@@ -5385,16 +5373,16 @@
         <v>82</v>
       </c>
       <c r="H51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="J51" t="s">
         <v>30</v>
       </c>
       <c r="K51" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="L51" t="s">
         <v>168</v>
@@ -5403,22 +5391,22 @@
         <v>107</v>
       </c>
       <c r="N51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O51" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P51" t="s">
         <v>58</v>
       </c>
       <c r="Q51" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="R51" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="S51" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -5435,7 +5423,7 @@
         <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F52" t="s">
         <v>144</v>
@@ -5447,37 +5435,37 @@
         <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J52" t="s">
         <v>111</v>
       </c>
       <c r="K52" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="L52" t="s">
         <v>118</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="N52" t="s">
         <v>164</v>
       </c>
       <c r="O52" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P52" t="s">
         <v>118</v>
       </c>
       <c r="Q52" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="R52" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="S52" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -5494,7 +5482,7 @@
         <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F53" t="s">
         <v>145</v>
@@ -5512,31 +5500,31 @@
         <v>34</v>
       </c>
       <c r="K53" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="N53" t="s">
         <v>73</v>
       </c>
       <c r="O53" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P53" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q53" t="s">
         <v>118</v>
       </c>
       <c r="R53" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S53" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -5553,7 +5541,7 @@
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F54" t="s">
         <v>146</v>
@@ -5562,22 +5550,22 @@
         <v>85</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J54" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K54" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L54" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N54" t="s">
         <v>124</v>
@@ -5589,13 +5577,13 @@
         <v>169</v>
       </c>
       <c r="Q54" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="R54" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="S54" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -5612,7 +5600,7 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F55" t="s">
         <v>147</v>
@@ -5633,28 +5621,28 @@
         <v>128</v>
       </c>
       <c r="L55" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N55" t="s">
         <v>86</v>
       </c>
       <c r="O55" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P55" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q55" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="R55" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S55" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -5671,7 +5659,7 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F56" t="s">
         <v>148</v>
@@ -5680,25 +5668,25 @@
         <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I56" t="s">
         <v>182</v>
       </c>
       <c r="J56" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="L56" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N56" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O56" t="s">
         <v>180</v>
@@ -5713,7 +5701,7 @@
         <v>180</v>
       </c>
       <c r="S56" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -5730,7 +5718,7 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F57" t="s">
         <v>149</v>
@@ -5742,37 +5730,37 @@
         <v>121</v>
       </c>
       <c r="I57" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J57" t="s">
         <v>65</v>
       </c>
       <c r="K57" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L57" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="N57" t="s">
         <v>171</v>
       </c>
       <c r="O57" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P57" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q57" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="R57" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="S57" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -5789,7 +5777,7 @@
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F58" t="s">
         <v>150</v>
@@ -5801,7 +5789,7 @@
         <v>178</v>
       </c>
       <c r="I58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J58" t="s">
         <v>122</v>
@@ -5810,25 +5798,25 @@
         <v>176</v>
       </c>
       <c r="L58" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="N58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O58" t="s">
         <v>78</v>
       </c>
       <c r="P58" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q58" t="s">
         <v>78</v>
       </c>
       <c r="R58" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="S58" t="s">
         <v>176</v>
@@ -5848,7 +5836,7 @@
         <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F59" t="s">
         <v>151</v>
@@ -5857,37 +5845,37 @@
         <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J59" t="s">
         <v>107</v>
       </c>
       <c r="K59" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L59" t="s">
         <v>67</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="N59" t="s">
         <v>172</v>
       </c>
       <c r="O59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P59" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q59" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="R59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S59" t="s">
         <v>173</v>
@@ -5907,7 +5895,7 @@
         <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F60" t="s">
         <v>152</v>
@@ -5919,13 +5907,13 @@
         <v>126</v>
       </c>
       <c r="I60" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J60" t="s">
         <v>56</v>
       </c>
       <c r="K60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L60" t="s">
         <v>197</v>
@@ -5940,10 +5928,10 @@
         <v>179</v>
       </c>
       <c r="P60" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q60" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="R60" t="s">
         <v>180</v>
@@ -5966,7 +5954,7 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F61" t="s">
         <v>153</v>
@@ -5975,40 +5963,40 @@
         <v>92</v>
       </c>
       <c r="H61" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I61" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J61" t="s">
+        <v>321</v>
+      </c>
+      <c r="K61" t="s">
         <v>326</v>
       </c>
-      <c r="K61" t="s">
-        <v>331</v>
-      </c>
       <c r="L61" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N61" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O61" t="s">
         <v>176</v>
       </c>
       <c r="P61" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q61" t="s">
         <v>176</v>
       </c>
       <c r="R61" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="S61" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -6025,7 +6013,7 @@
         <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F62" t="s">
         <v>154</v>
@@ -6034,40 +6022,40 @@
         <v>93</v>
       </c>
       <c r="H62" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I62" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J62" t="s">
         <v>114</v>
       </c>
       <c r="K62" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L62" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N62" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O62" t="s">
         <v>56</v>
       </c>
       <c r="P62" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q62" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="R62" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="S62" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -6084,7 +6072,7 @@
         <v>51</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F63" t="s">
         <v>155</v>
@@ -6093,22 +6081,22 @@
         <v>94</v>
       </c>
       <c r="H63" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I63" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J63" t="s">
         <v>174</v>
       </c>
       <c r="K63" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L63" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="N63" t="s">
         <v>168</v>
@@ -6117,7 +6105,7 @@
         <v>72</v>
       </c>
       <c r="P63" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q63" t="s">
         <v>82</v>
@@ -6126,7 +6114,7 @@
         <v>72</v>
       </c>
       <c r="S63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -6143,7 +6131,7 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F64" t="s">
         <v>156</v>
@@ -6152,37 +6140,37 @@
         <v>95</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I64" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J64" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K64" t="s">
         <v>174</v>
       </c>
       <c r="L64" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="N64" t="s">
         <v>123</v>
       </c>
       <c r="O64" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P64" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q64" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="R64" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="S64" t="s">
         <v>65</v>
@@ -6214,37 +6202,37 @@
         <v>87</v>
       </c>
       <c r="I65" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J65" t="s">
         <v>87</v>
       </c>
       <c r="K65" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L65" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>79</v>
       </c>
       <c r="N65" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O65" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P65" t="s">
         <v>180</v>
       </c>
       <c r="Q65" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="R65" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S65" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -6270,34 +6258,34 @@
         <v>83</v>
       </c>
       <c r="H66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I66" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J66" t="s">
         <v>68</v>
       </c>
       <c r="K66" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L66" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="N66" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O66" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P66" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q66" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="R66" t="s">
         <v>173</v>
@@ -6332,37 +6320,37 @@
         <v>109</v>
       </c>
       <c r="I67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J67" t="s">
         <v>121</v>
       </c>
       <c r="K67" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="L67" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N67" t="s">
         <v>114</v>
       </c>
       <c r="O67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P67" t="s">
         <v>70</v>
       </c>
       <c r="Q67" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="R67" t="s">
         <v>94</v>
       </c>
       <c r="S67" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -6379,7 +6367,7 @@
         <v>56</v>
       </c>
       <c r="E68" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F68" t="s">
         <v>159</v>
@@ -6388,40 +6376,40 @@
         <v>133</v>
       </c>
       <c r="H68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I68" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J68" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K68" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="L68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="N68" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O68" t="s">
         <v>117</v>
       </c>
       <c r="P68" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q68" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="R68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -6447,40 +6435,40 @@
         <v>134</v>
       </c>
       <c r="H69" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J69" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K69" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="L69" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N69" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O69" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P69" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q69" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="R69" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="S69" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -6497,7 +6485,7 @@
         <v>190</v>
       </c>
       <c r="E70" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G70" t="s">
         <v>198</v>
@@ -6509,7 +6497,7 @@
         <v>198</v>
       </c>
       <c r="J70" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K70" t="s">
         <v>184</v>
@@ -6518,7 +6506,7 @@
         <v>184</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N70" t="s">
         <v>184</v>
@@ -6553,19 +6541,19 @@
         <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I71" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="J71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K71" t="s">
         <v>184</v>
@@ -6574,7 +6562,7 @@
         <v>184</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N71" t="s">
         <v>159</v>
@@ -6609,7 +6597,7 @@
         <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G72" t="s">
         <v>184</v>
@@ -6621,7 +6609,7 @@
         <v>184</v>
       </c>
       <c r="J72" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K72" t="s">
         <v>159</v>
@@ -6630,7 +6618,7 @@
         <v>159</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N72" t="s">
         <v>159</v>
@@ -6665,19 +6653,19 @@
         <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G73" t="s">
         <v>184</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I73" t="s">
         <v>159</v>
       </c>
       <c r="J73" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K73" t="s">
         <v>159</v>
@@ -6686,7 +6674,7 @@
         <v>159</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N73" t="s">
         <v>159</v>
@@ -6721,19 +6709,19 @@
         <v>194</v>
       </c>
       <c r="E74" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G74" t="s">
         <v>159</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I74" t="s">
         <v>159</v>
       </c>
       <c r="J74" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K74" t="s">
         <v>159</v>
@@ -6742,7 +6730,7 @@
         <v>159</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N74" t="s">
         <v>159</v>
@@ -6786,40 +6774,40 @@
         <v>100</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J75" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K75" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="L75" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="N75" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O75" t="s">
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q75" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="R75" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="S75" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -6845,40 +6833,40 @@
         <v>101</v>
       </c>
       <c r="H76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I76" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J76" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K76" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="L76" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="N76" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O76" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P76" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q76" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="R76" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="S76" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -6904,40 +6892,40 @@
         <v>102</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I77" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J77" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K77" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="L77" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="N77" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O77" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P77" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q77" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R77" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="S77" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -6963,40 +6951,40 @@
         <v>103</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I78" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J78" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K78" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L78" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="N78" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O78" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P78" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q78" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="R78" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="S78" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -7004,49 +6992,49 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H79" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I79" t="s">
         <v>32</v>
       </c>
       <c r="J79" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K79" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="L79" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="N79" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="O79" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P79" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q79" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="R79" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="S79" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -7054,49 +7042,49 @@
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H80" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I80" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J80" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K80" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="L80" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="N80" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="O80" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="P80" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="Q80" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="R80" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S80" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -7104,49 +7092,49 @@
         <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H81" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I81" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J81" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K81" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="L81" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="N81" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O81" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P81" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q81" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="R81" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S81" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -7154,49 +7142,49 @@
         <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H82" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I82" t="s">
         <v>76</v>
       </c>
       <c r="J82" t="s">
+        <v>595</v>
+      </c>
+      <c r="K82" t="s">
+        <v>723</v>
+      </c>
+      <c r="L82" t="s">
+        <v>724</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="N82" t="s">
+        <v>642</v>
+      </c>
+      <c r="O82" t="s">
+        <v>301</v>
+      </c>
+      <c r="P82" t="s">
         <v>600</v>
       </c>
-      <c r="K82" t="s">
-        <v>728</v>
-      </c>
-      <c r="L82" t="s">
-        <v>729</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="N82" t="s">
-        <v>647</v>
-      </c>
-      <c r="O82" t="s">
-        <v>306</v>
-      </c>
-      <c r="P82" t="s">
-        <v>605</v>
-      </c>
       <c r="Q82" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="R82" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S82" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -7204,49 +7192,49 @@
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H83" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I83" t="s">
         <v>88</v>
       </c>
       <c r="J83" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K83" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="L83" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="N83" t="s">
         <v>168</v>
       </c>
       <c r="O83" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P83" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Q83" t="s">
         <v>54</v>
       </c>
       <c r="R83" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="S83" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -7254,49 +7242,49 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H84" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I84" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J84" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K84" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L84" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="N84" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="O84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q84" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="R84" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="S84" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -7304,49 +7292,49 @@
         <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="I85" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J85" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="K85" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="L85" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="N85" t="s">
         <v>94</v>
       </c>
       <c r="O85" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P85" t="s">
         <v>110</v>
       </c>
       <c r="Q85" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="R85" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="S85" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -7354,7 +7342,7 @@
         <v>336</v>
       </c>
       <c r="B86" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
@@ -7363,40 +7351,40 @@
         <v>110</v>
       </c>
       <c r="H86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I86" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J86" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="K86" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L86" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="N86" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O86" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P86" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q86" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="R86" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="S86" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -7404,49 +7392,49 @@
         <v>720</v>
       </c>
       <c r="B87" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H87" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I87" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J87" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="K87" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="L87" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="N87" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="O87" t="s">
         <v>181</v>
       </c>
       <c r="P87" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q87" t="s">
         <v>45</v>
       </c>
       <c r="R87" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="S87" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment_results/xlsx_format/ex_uni_all.xlsx
+++ b/Experiment_results/xlsx_format/ex_uni_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8235CBA-AA8E-4273-9759-530606CC5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B2D1C-F8ED-45D1-8643-DA9CB87CD043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="756">
   <si>
     <t>ETTh1</t>
   </si>
@@ -66,36 +66,9 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.894</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
     <t>1.124</t>
   </si>
   <si>
-    <t>1.328</t>
-  </si>
-  <si>
-    <t>2.471</t>
-  </si>
-  <si>
-    <t>2.687</t>
-  </si>
-  <si>
-    <t>3.292</t>
-  </si>
-  <si>
-    <t>5.392</t>
-  </si>
-  <si>
-    <t>9.238</t>
-  </si>
-  <si>
     <t>0.435</t>
   </si>
   <si>
@@ -141,36 +114,6 @@
     <t>0.303</t>
   </si>
   <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>1.357</t>
-  </si>
-  <si>
-    <t>1.219</t>
-  </si>
-  <si>
-    <t>2.262</t>
-  </si>
-  <si>
-    <t>2.941</t>
-  </si>
-  <si>
-    <t>9.472</t>
-  </si>
-  <si>
-    <t>11.382</t>
-  </si>
-  <si>
-    <t>16.066</t>
-  </si>
-  <si>
-    <t>44.45</t>
-  </si>
-  <si>
-    <t>114.86</t>
-  </si>
-  <si>
     <t>0.254</t>
   </si>
   <si>
@@ -591,36 +534,6 @@
     <t>0.001</t>
   </si>
   <si>
-    <t>7.942</t>
-  </si>
-  <si>
-    <t>7.510</t>
-  </si>
-  <si>
-    <t>6.104</t>
-  </si>
-  <si>
-    <t>6.233</t>
-  </si>
-  <si>
-    <t>6.411</t>
-  </si>
-  <si>
-    <t>93.442</t>
-  </si>
-  <si>
-    <t>92.097</t>
-  </si>
-  <si>
-    <t>60.032</t>
-  </si>
-  <si>
-    <t>61.101</t>
-  </si>
-  <si>
-    <t>63.333</t>
-  </si>
-  <si>
     <t>0.019</t>
   </si>
   <si>
@@ -1257,27 +1170,12 @@
     <t>4.188</t>
   </si>
   <si>
-    <t>7.166</t>
-  </si>
-  <si>
     <t>2.459</t>
   </si>
   <si>
-    <t>2.676</t>
-  </si>
-  <si>
-    <t>5.452</t>
-  </si>
-  <si>
-    <t>3.320</t>
-  </si>
-  <si>
     <t>0.330</t>
   </si>
   <si>
-    <t>9.295</t>
-  </si>
-  <si>
     <t>0.504</t>
   </si>
   <si>
@@ -1293,9 +1191,6 @@
     <t>0.965</t>
   </si>
   <si>
-    <t>2.507</t>
-  </si>
-  <si>
     <t>3.817</t>
   </si>
   <si>
@@ -1305,48 +1200,18 @@
     <t>2.372</t>
   </si>
   <si>
-    <t>0.008</t>
-  </si>
-  <si>
     <t>0.045</t>
   </si>
   <si>
     <t>0.098</t>
   </si>
   <si>
-    <t>5.963</t>
-  </si>
-  <si>
-    <t>8.600</t>
-  </si>
-  <si>
-    <t>6.153</t>
-  </si>
-  <si>
-    <t>5.265</t>
-  </si>
-  <si>
-    <t>5.494</t>
-  </si>
-  <si>
     <t>7.116</t>
   </si>
   <si>
     <t>9.455</t>
   </si>
   <si>
-    <t>11.253</t>
-  </si>
-  <si>
-    <t>16.305</t>
-  </si>
-  <si>
-    <t>46.520</t>
-  </si>
-  <si>
-    <t>116.418</t>
-  </si>
-  <si>
     <t>0.697</t>
   </si>
   <si>
@@ -1359,12 +1224,6 @@
     <t>1.324</t>
   </si>
   <si>
-    <t>7.497</t>
-  </si>
-  <si>
-    <t>20.084</t>
-  </si>
-  <si>
     <t>17.049</t>
   </si>
   <si>
@@ -1377,18 +1236,6 @@
     <t>0.003</t>
   </si>
   <si>
-    <t>47.185</t>
-  </si>
-  <si>
-    <t>98.665</t>
-  </si>
-  <si>
-    <t>59.597</t>
-  </si>
-  <si>
-    <t>43.522</t>
-  </si>
-  <si>
     <t>47.210</t>
   </si>
   <si>
@@ -1647,9 +1494,6 @@
     <t>GTT-Tiny (finetune)</t>
   </si>
   <si>
-    <t>4.129</t>
-  </si>
-  <si>
     <t>SparseTSF</t>
   </si>
   <si>
@@ -2233,6 +2077,231 @@
   </si>
   <si>
     <t>1.291</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.909</t>
+  </si>
+  <si>
+    <t>1.204</t>
+  </si>
+  <si>
+    <t>1.872</t>
+  </si>
+  <si>
+    <t>2.239</t>
+  </si>
+  <si>
+    <t>2.844</t>
+  </si>
+  <si>
+    <t>4.094</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>1.174</t>
+  </si>
+  <si>
+    <t>1.656</t>
+  </si>
+  <si>
+    <t>3.735</t>
+  </si>
+  <si>
+    <t>3.356</t>
+  </si>
+  <si>
+    <t>762.589</t>
+  </si>
+  <si>
+    <t>2205.256</t>
+  </si>
+  <si>
+    <t>2012.095</t>
+  </si>
+  <si>
+    <t>2406.51</t>
+  </si>
+  <si>
+    <t>2686.644</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>1.859</t>
+  </si>
+  <si>
+    <t>3.180</t>
+  </si>
+  <si>
+    <t>1.864</t>
+  </si>
+  <si>
+    <t>4.238</t>
+  </si>
+  <si>
+    <t>8.212</t>
+  </si>
+  <si>
+    <t>13.414</t>
+  </si>
+  <si>
+    <t>26.748</t>
+  </si>
+  <si>
+    <t>1.881</t>
+  </si>
+  <si>
+    <t>2.583</t>
+  </si>
+  <si>
+    <t>3.601</t>
+  </si>
+  <si>
+    <t>32.456</t>
+  </si>
+  <si>
+    <t>23.352</t>
+  </si>
+  <si>
+    <t>1.969</t>
+  </si>
+  <si>
+    <t>1.118</t>
+  </si>
+  <si>
+    <t>1.422</t>
+  </si>
+  <si>
+    <t>1.701</t>
+  </si>
+  <si>
+    <t>1.794</t>
+  </si>
+  <si>
+    <t>6.655</t>
+  </si>
+  <si>
+    <t>4.791</t>
+  </si>
+  <si>
+    <t>3.271</t>
+  </si>
+  <si>
+    <t>2.325</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>2.794</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>4.487</t>
+  </si>
+  <si>
+    <t>2.621</t>
+  </si>
+  <si>
+    <t>2.456</t>
+  </si>
+  <si>
+    <t>3.483</t>
+  </si>
+  <si>
+    <t>5.979</t>
+  </si>
+  <si>
+    <t>1470.311</t>
+  </si>
+  <si>
+    <t>1554.456</t>
+  </si>
+  <si>
+    <t>1374.993</t>
+  </si>
+  <si>
+    <t>1771.796</t>
+  </si>
+  <si>
+    <t>878.724</t>
+  </si>
+  <si>
+    <t>3385.276</t>
+  </si>
+  <si>
+    <t>2323.418</t>
+  </si>
+  <si>
+    <t>2338.977</t>
+  </si>
+  <si>
+    <t>2614.634</t>
+  </si>
+  <si>
+    <t>67.737</t>
+  </si>
+  <si>
+    <t>36.218</t>
+  </si>
+  <si>
+    <t>16.022</t>
+  </si>
+  <si>
+    <t>7.927</t>
+  </si>
+  <si>
+    <t>1.028</t>
+  </si>
+  <si>
+    <t>17.27</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>24.472</t>
+  </si>
+  <si>
+    <t>11.138</t>
+  </si>
+  <si>
+    <t>9.613</t>
+  </si>
+  <si>
+    <t>22.107</t>
+  </si>
+  <si>
+    <t>25.004</t>
+  </si>
+  <si>
+    <t>22.633</t>
+  </si>
+  <si>
+    <t>22.022</t>
+  </si>
+  <si>
+    <t>112.901</t>
+  </si>
+  <si>
+    <t>102.149</t>
   </si>
 </sst>
 </file>
@@ -2274,12 +2343,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2562,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6080771B-968D-4139-AF07-E0D46FA87262}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S87" sqref="G1:S87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2585,61 +2655,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="F1" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="G1" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="H1" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
       <c r="I1" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="J1" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="K1" t="s">
-        <v>675</v>
+        <v>623</v>
       </c>
       <c r="L1" t="s">
-        <v>676</v>
+        <v>624</v>
       </c>
       <c r="M1" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="N1" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="O1" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="P1" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="Q1" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
       <c r="R1" t="s">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="S1" t="s">
-        <v>674</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -2653,49 +2723,52 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F2" s="5">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>404</v>
-      </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="O2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="Q2" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="R2" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="S2" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -2709,49 +2782,52 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>714</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="J3" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="K3" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="N3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="R3" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
       <c r="S3" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2765,49 +2841,52 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>682</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>715</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2821,49 +2900,52 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>683</v>
       </c>
       <c r="E5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" t="s">
+        <v>502</v>
+      </c>
+      <c r="L5" t="s">
+        <v>625</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K5" t="s">
-        <v>554</v>
-      </c>
-      <c r="L5" t="s">
-        <v>677</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>457</v>
-      </c>
       <c r="N5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="O5" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Q5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="R5" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
       <c r="S5" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2877,49 +2959,52 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>680</v>
       </c>
       <c r="E6" t="s">
+        <v>717</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" t="s">
+        <v>541</v>
+      </c>
+      <c r="L6" t="s">
+        <v>352</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" t="s">
-        <v>250</v>
-      </c>
-      <c r="J6" t="s">
-        <v>290</v>
-      </c>
-      <c r="K6" t="s">
-        <v>593</v>
-      </c>
-      <c r="L6" t="s">
-        <v>381</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>458</v>
-      </c>
       <c r="N6" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="S6" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2933,49 +3018,52 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>684</v>
       </c>
       <c r="E7" t="s">
-        <v>408</v>
+        <v>378</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="N7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="O7" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="S7" t="s">
-        <v>563</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2989,49 +3077,52 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>685</v>
       </c>
       <c r="E8" t="s">
-        <v>409</v>
+        <v>721</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="L8" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="O8" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="Q8" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="R8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="S8" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -3045,49 +3136,52 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>686</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
+        <v>720</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="J9" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K9" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="N9" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="O9" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="P9" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="Q9" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="R9" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="S9" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -3101,49 +3195,52 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>687</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
+        <v>719</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="J10" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="K10" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
       <c r="L10" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="N10" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="Q10" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="R10" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="S10" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -3157,49 +3254,52 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>688</v>
       </c>
       <c r="E11" t="s">
-        <v>413</v>
+        <v>718</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="K11" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="L11" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="N11" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="O11" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="Q11" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -3213,49 +3313,52 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>414</v>
+        <v>380</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K12" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="N12" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="P12" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="Q12" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="R12" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="S12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -3269,49 +3372,52 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>415</v>
+        <v>381</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="I13" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="J13" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="K13" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="L13" t="s">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="N13" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="O13" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="P13" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="Q13" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="R13" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="S13" t="s">
-        <v>567</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3325,49 +3431,52 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>416</v>
+        <v>382</v>
+      </c>
+      <c r="F14" s="5">
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="J14" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="N14" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="O14" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="P14" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Q14" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="R14" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="S14" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3381,49 +3490,52 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>417</v>
+        <v>383</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="I15" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="J15" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="K15" t="s">
-        <v>681</v>
+        <v>629</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="P15" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="Q15" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="R15" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3437,49 +3549,52 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>418</v>
+        <v>384</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="N16" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="Q16" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="R16" t="s">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -3493,49 +3608,52 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>419</v>
+        <v>722</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="L17" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="N17" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="O17" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="P17" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="Q17" t="s">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="R17" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="S17" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3549,49 +3667,52 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>537</v>
+        <v>723</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="K18" t="s">
-        <v>682</v>
+        <v>630</v>
       </c>
       <c r="L18" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="P18" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="Q18" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="R18" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="S18" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3605,49 +3726,52 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" t="s">
+        <v>631</v>
+      </c>
+      <c r="L19" t="s">
+        <v>262</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="N19" t="s">
+        <v>304</v>
+      </c>
+      <c r="O19" t="s">
+        <v>318</v>
+      </c>
+      <c r="P19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>142</v>
+      </c>
+      <c r="R19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s">
-        <v>183</v>
-      </c>
-      <c r="J19" t="s">
-        <v>298</v>
-      </c>
-      <c r="K19" t="s">
-        <v>683</v>
-      </c>
-      <c r="L19" t="s">
-        <v>291</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="N19" t="s">
-        <v>333</v>
-      </c>
-      <c r="O19" t="s">
-        <v>347</v>
-      </c>
-      <c r="P19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>161</v>
-      </c>
-      <c r="R19" t="s">
-        <v>46</v>
-      </c>
       <c r="S19" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -3661,49 +3785,52 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>421</v>
+        <v>386</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="K20" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="N20" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="O20" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="P20" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="Q20" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="R20" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="S20" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -3717,49 +3844,52 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>422</v>
+        <v>387</v>
+      </c>
+      <c r="F21" s="5">
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I21" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="N21" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="O21" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="P21" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="Q21" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="R21" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="S21" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -3773,49 +3903,52 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>504</v>
       </c>
       <c r="E22" t="s">
-        <v>423</v>
+        <v>489</v>
+      </c>
+      <c r="F22" s="5">
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="K22" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="N22" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="O22" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="P22" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="Q22" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="R22" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="S22" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -3829,49 +3962,52 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>689</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>347</v>
+      </c>
+      <c r="F23" s="5">
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="I23" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="J23" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
       <c r="L23" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
       <c r="N23" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="O23" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q23" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="R23" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="S23" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -3885,49 +4021,52 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>466</v>
       </c>
       <c r="E24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>273</v>
+      </c>
+      <c r="K24" t="s">
+        <v>633</v>
+      </c>
+      <c r="L24" t="s">
+        <v>293</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N24" t="s">
+        <v>356</v>
+      </c>
+      <c r="O24" t="s">
         <v>87</v>
       </c>
-      <c r="G24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" t="s">
-        <v>386</v>
-      </c>
-      <c r="I24" t="s">
-        <v>260</v>
-      </c>
-      <c r="J24" t="s">
-        <v>302</v>
-      </c>
-      <c r="K24" t="s">
-        <v>685</v>
-      </c>
-      <c r="L24" t="s">
-        <v>322</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="N24" t="s">
-        <v>385</v>
-      </c>
-      <c r="O24" t="s">
-        <v>106</v>
-      </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="Q24" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="R24" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -3941,49 +4080,52 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>424</v>
+        <v>63</v>
+      </c>
+      <c r="F25" s="5">
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="H25" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="I25" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="L25" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
       <c r="N25" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="O25" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="P25" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="Q25" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
       <c r="R25" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="S25" t="s">
-        <v>565</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -3997,49 +4139,52 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>425</v>
+        <v>724</v>
+      </c>
+      <c r="F26" s="5">
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H26" t="s">
-        <v>732</v>
+        <v>680</v>
       </c>
       <c r="I26" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="L26" t="s">
-        <v>689</v>
+        <v>637</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="N26" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="O26" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="P26" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="Q26" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="R26" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="S26" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -4053,49 +4198,52 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>690</v>
       </c>
       <c r="E27" t="s">
-        <v>426</v>
+        <v>725</v>
+      </c>
+      <c r="F27" s="5">
+        <v>10</v>
       </c>
       <c r="G27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>276</v>
+      </c>
+      <c r="K27" t="s">
+        <v>638</v>
+      </c>
+      <c r="L27" t="s">
+        <v>638</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="N27" t="s">
         <v>160</v>
       </c>
-      <c r="H27" t="s">
-        <v>177</v>
-      </c>
-      <c r="I27" t="s">
-        <v>263</v>
-      </c>
-      <c r="J27" t="s">
-        <v>305</v>
-      </c>
-      <c r="K27" t="s">
-        <v>690</v>
-      </c>
-      <c r="L27" t="s">
-        <v>690</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="N27" t="s">
-        <v>179</v>
-      </c>
       <c r="O27" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="P27" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="Q27" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="R27" t="s">
-        <v>541</v>
+        <v>489</v>
       </c>
       <c r="S27" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -4109,49 +4257,52 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>186</v>
+        <v>581</v>
       </c>
       <c r="E28" t="s">
-        <v>427</v>
+        <v>726</v>
+      </c>
+      <c r="F28" s="5">
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="I28" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="J28" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="O28" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="P28" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="Q28" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="R28" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="S28" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -4165,49 +4316,52 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>691</v>
       </c>
       <c r="E29" t="s">
-        <v>428</v>
+        <v>727</v>
+      </c>
+      <c r="F29" s="5">
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="L29" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="N29" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="O29" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="Q29" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="R29" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -4221,49 +4375,52 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>692</v>
       </c>
       <c r="E30" t="s">
-        <v>429</v>
+        <v>728</v>
+      </c>
+      <c r="F30" s="5">
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="H30" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="N30" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="O30" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="Q30" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="R30" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="S30" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -4277,49 +4434,52 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>693</v>
       </c>
       <c r="E31" t="s">
-        <v>430</v>
+        <v>729</v>
+      </c>
+      <c r="F31" s="5">
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="J31" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="N31" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="O31" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="P31" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="Q31" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="R31" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
       <c r="S31" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -4338,44 +4498,47 @@
       <c r="E32">
         <v>10000</v>
       </c>
+      <c r="F32">
+        <v>10000</v>
+      </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
       <c r="L32" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="N32" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="O32" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="P32" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="Q32" t="s">
-        <v>528</v>
+        <v>477</v>
       </c>
       <c r="R32" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -4394,44 +4557,47 @@
       <c r="E33">
         <v>10000</v>
       </c>
+      <c r="F33">
+        <v>10000</v>
+      </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="L33" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="N33" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="O33" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="P33" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>529</v>
+        <v>478</v>
       </c>
       <c r="R33" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -4450,44 +4616,47 @@
       <c r="E34">
         <v>10000</v>
       </c>
+      <c r="F34">
+        <v>10000</v>
+      </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
       <c r="L34" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="M34" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="N34" t="s">
+        <v>370</v>
+      </c>
+      <c r="O34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" t="s">
         <v>452</v>
       </c>
-      <c r="N34" t="s">
-        <v>399</v>
-      </c>
-      <c r="O34" t="s">
-        <v>113</v>
-      </c>
-      <c r="P34" t="s">
-        <v>503</v>
-      </c>
       <c r="Q34" t="s">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="R34" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="S34" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -4506,44 +4675,47 @@
       <c r="E35">
         <v>10000</v>
       </c>
+      <c r="F35">
+        <v>10000</v>
+      </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="I35" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
       <c r="L35" t="s">
-        <v>697</v>
+        <v>645</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="N35" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="O35" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="P35" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="Q35" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="R35" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="S35" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -4551,49 +4723,58 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
+      <c r="D36">
+        <v>2463</v>
+      </c>
+      <c r="E36" t="s">
+        <v>730</v>
+      </c>
+      <c r="F36">
+        <v>10000</v>
+      </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="J36" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
       <c r="K36" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
       <c r="L36" t="s">
-        <v>699</v>
+        <v>647</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="O36" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="Q36" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="R36" t="s">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="S36" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -4601,49 +4782,58 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
+      <c r="D37">
+        <v>3185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>731</v>
+      </c>
+      <c r="F37">
+        <v>10000</v>
+      </c>
       <c r="G37" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="H37" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="J37" t="s">
-        <v>660</v>
+        <v>608</v>
       </c>
       <c r="K37" t="s">
-        <v>700</v>
+        <v>648</v>
       </c>
       <c r="L37" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>625</v>
+        <v>573</v>
       </c>
       <c r="N37" t="s">
-        <v>638</v>
+        <v>586</v>
       </c>
       <c r="O37" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="P37" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="Q37" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="R37" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="S37" t="s">
-        <v>647</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -4651,49 +4841,58 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
+      <c r="D38">
+        <v>5817</v>
+      </c>
+      <c r="E38" t="s">
+        <v>732</v>
+      </c>
+      <c r="F38">
+        <v>10000</v>
+      </c>
       <c r="G38" t="s">
-        <v>667</v>
+        <v>615</v>
       </c>
       <c r="H38" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
       <c r="I38" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="K38" t="s">
-        <v>700</v>
+        <v>648</v>
       </c>
       <c r="L38" t="s">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="N38" t="s">
-        <v>639</v>
+        <v>587</v>
       </c>
       <c r="O38" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="P38" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="Q38" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="R38" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="S38" t="s">
-        <v>648</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -4701,49 +4900,58 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
+      <c r="D39">
+        <v>6444</v>
+      </c>
+      <c r="E39" t="s">
+        <v>733</v>
+      </c>
+      <c r="F39">
+        <v>10000</v>
+      </c>
       <c r="G39" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="H39" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="I39" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="J39" t="s">
+        <v>458</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>650</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="N39" t="s">
+        <v>588</v>
+      </c>
+      <c r="O39" t="s">
+        <v>561</v>
+      </c>
+      <c r="P39" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q39" t="s">
         <v>509</v>
       </c>
-      <c r="K39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" t="s">
-        <v>702</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="N39" t="s">
-        <v>640</v>
-      </c>
-      <c r="O39" t="s">
-        <v>613</v>
-      </c>
-      <c r="P39" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>561</v>
-      </c>
       <c r="R39" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="S39" t="s">
-        <v>649</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -4751,49 +4959,58 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
+      <c r="D40" t="s">
+        <v>694</v>
+      </c>
+      <c r="E40" t="s">
+        <v>734</v>
+      </c>
+      <c r="F40">
+        <v>10000</v>
+      </c>
       <c r="G40" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="H40" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J40" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="K40" t="s">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="N40" t="s">
-        <v>635</v>
+        <v>583</v>
       </c>
       <c r="O40" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="P40" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="Q40" t="s">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="R40" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="S40" t="s">
-        <v>643</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -4801,49 +5018,58 @@
         <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
+      <c r="D41" t="s">
+        <v>695</v>
+      </c>
+      <c r="E41" t="s">
+        <v>735</v>
+      </c>
+      <c r="F41">
+        <v>10000</v>
+      </c>
       <c r="G41" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="H41" t="s">
-        <v>669</v>
+        <v>617</v>
       </c>
       <c r="I41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" t="s">
+        <v>652</v>
+      </c>
+      <c r="L41" t="s">
+        <v>196</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="N41" t="s">
+        <v>269</v>
+      </c>
+      <c r="O41" t="s">
+        <v>551</v>
+      </c>
+      <c r="P41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" t="s">
+        <v>175</v>
+      </c>
+      <c r="S41" t="s">
         <v>280</v>
-      </c>
-      <c r="J41" t="s">
-        <v>251</v>
-      </c>
-      <c r="K41" t="s">
-        <v>704</v>
-      </c>
-      <c r="L41" t="s">
-        <v>225</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="N41" t="s">
-        <v>298</v>
-      </c>
-      <c r="O41" t="s">
-        <v>603</v>
-      </c>
-      <c r="P41" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>30</v>
-      </c>
-      <c r="R41" t="s">
-        <v>204</v>
-      </c>
-      <c r="S41" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -4851,49 +5077,58 @@
         <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
+      <c r="D42" t="s">
+        <v>696</v>
+      </c>
+      <c r="E42" t="s">
+        <v>736</v>
+      </c>
+      <c r="F42">
+        <v>10000</v>
+      </c>
       <c r="G42" t="s">
-        <v>668</v>
+        <v>616</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="K42" t="s">
-        <v>705</v>
+        <v>653</v>
       </c>
       <c r="L42" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="N42" t="s">
-        <v>636</v>
+        <v>584</v>
       </c>
       <c r="O42" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="P42" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="Q42" t="s">
-        <v>603</v>
+        <v>551</v>
       </c>
       <c r="R42" t="s">
-        <v>593</v>
+        <v>541</v>
       </c>
       <c r="S42" t="s">
-        <v>644</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -4901,49 +5136,58 @@
         <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
+      <c r="D43" t="s">
+        <v>697</v>
+      </c>
+      <c r="E43" t="s">
+        <v>737</v>
+      </c>
+      <c r="F43">
+        <v>10000</v>
+      </c>
       <c r="G43" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="H43" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="I43" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="J43" t="s">
+        <v>179</v>
+      </c>
+      <c r="K43" t="s">
+        <v>652</v>
+      </c>
+      <c r="L43" t="s">
+        <v>420</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" t="s">
         <v>208</v>
       </c>
-      <c r="K43" t="s">
-        <v>704</v>
-      </c>
-      <c r="L43" t="s">
-        <v>471</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="N43" t="s">
-        <v>345</v>
-      </c>
-      <c r="O43" t="s">
-        <v>121</v>
-      </c>
-      <c r="P43" t="s">
-        <v>237</v>
-      </c>
       <c r="Q43" t="s">
-        <v>604</v>
+        <v>552</v>
       </c>
       <c r="R43" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="S43" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -4951,49 +5195,58 @@
         <v>720</v>
       </c>
       <c r="B44" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
+      <c r="D44" t="s">
+        <v>698</v>
+      </c>
+      <c r="E44" t="s">
+        <v>738</v>
+      </c>
+      <c r="F44">
+        <v>10000</v>
+      </c>
       <c r="G44" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="H44" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="I44" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s">
-        <v>706</v>
+        <v>654</v>
       </c>
       <c r="L44" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>622</v>
+        <v>570</v>
       </c>
       <c r="N44" t="s">
-        <v>637</v>
+        <v>585</v>
       </c>
       <c r="O44" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="Q44" t="s">
-        <v>605</v>
+        <v>553</v>
       </c>
       <c r="R44" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="S44" t="s">
-        <v>646</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -5007,52 +5260,52 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="E45" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H45" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I45" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="J45" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="L45" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="N45" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="O45" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="Q45" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
       <c r="R45" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="S45" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -5066,52 +5319,52 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
+        <v>699</v>
+      </c>
+      <c r="E46" t="s">
+        <v>376</v>
+      </c>
+      <c r="F46" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" t="s">
+        <v>285</v>
+      </c>
+      <c r="K46" t="s">
+        <v>245</v>
+      </c>
+      <c r="L46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="N46" t="s">
+        <v>363</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q46" t="s">
         <v>36</v>
       </c>
-      <c r="E46" t="s">
-        <v>405</v>
-      </c>
-      <c r="F46" t="s">
-        <v>330</v>
-      </c>
-      <c r="G46" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" t="s">
-        <v>314</v>
-      </c>
-      <c r="K46" t="s">
-        <v>274</v>
-      </c>
-      <c r="L46" t="s">
-        <v>53</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="N46" t="s">
-        <v>392</v>
-      </c>
-      <c r="O46" t="s">
-        <v>88</v>
-      </c>
-      <c r="P46" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>55</v>
-      </c>
       <c r="R46" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="S46" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -5125,52 +5378,52 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>700</v>
       </c>
       <c r="E47" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H47" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="I47" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="J47" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="K47" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="N47" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="O47" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="P47" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="Q47" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="R47" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="S47" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -5184,52 +5437,52 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>701</v>
       </c>
       <c r="E48" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="I48" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="J48" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="K48" t="s">
-        <v>707</v>
+        <v>655</v>
       </c>
       <c r="L48" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="N48" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="O48" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="Q48" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="R48" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="S48" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -5243,52 +5496,52 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>702</v>
       </c>
       <c r="E49" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H49" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="I49" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="J49" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="K49" t="s">
-        <v>708</v>
+        <v>656</v>
       </c>
       <c r="L49" t="s">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="N49" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O49" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="P49" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="Q49" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="R49" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="S49" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -5302,52 +5555,52 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>703</v>
       </c>
       <c r="E50" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H50" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="J50" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="K50" t="s">
-        <v>709</v>
+        <v>657</v>
       </c>
       <c r="L50" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="N50" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="O50" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="P50" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="Q50" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="R50" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="S50" t="s">
-        <v>573</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -5361,52 +5614,52 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>704</v>
       </c>
       <c r="E51" t="s">
-        <v>433</v>
+        <v>742</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="I51" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
       <c r="L51" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="N51" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="O51" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="P51" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="Q51" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="R51" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="S51" t="s">
-        <v>574</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -5420,52 +5673,52 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>705</v>
       </c>
       <c r="E52" t="s">
-        <v>434</v>
+        <v>741</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="J52" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="L52" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="N52" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="O52" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="P52" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="R52" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="S52" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -5479,52 +5732,52 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>706</v>
       </c>
       <c r="E53" t="s">
-        <v>435</v>
+        <v>740</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J53" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K53" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="L53" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="N53" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="O53" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="P53" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="Q53" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="R53" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="S53" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -5538,52 +5791,52 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>707</v>
       </c>
       <c r="E54" t="s">
-        <v>436</v>
+        <v>739</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="I54" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="J54" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="K54" t="s">
-        <v>605</v>
+        <v>553</v>
       </c>
       <c r="L54" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="N54" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O54" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="Q54" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="R54" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="S54" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -5597,52 +5850,52 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="F55" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H55" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="J55" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K55" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="N55" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="O55" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="P55" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="Q55" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="R55" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="S55" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -5656,52 +5909,52 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H56" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J56" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="K56" t="s">
-        <v>710</v>
+        <v>658</v>
       </c>
       <c r="L56" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="N56" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="O56" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="P56" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="Q56" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="R56" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="S56" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -5715,52 +5968,52 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H57" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="J57" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K57" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="L57" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="N57" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="O57" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="P57" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="Q57" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="R57" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="S57" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -5774,52 +6027,52 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H58" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="I58" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L58" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>485</v>
+        <v>434</v>
       </c>
       <c r="N58" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="P58" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="Q58" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="R58" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="S58" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -5833,52 +6086,52 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G59" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H59" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="I59" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="J59" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="L59" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="N59" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="O59" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="P59" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="Q59" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="R59" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="S59" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -5892,52 +6145,52 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>441</v>
+        <v>743</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I60" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="K60" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="L60" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N60" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="O60" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="P60" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="Q60" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="R60" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="S60" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -5951,52 +6204,52 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>442</v>
+        <v>744</v>
       </c>
       <c r="F61" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H61" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="I61" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="J61" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="K61" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="L61" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="N61" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="O61" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="P61" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="Q61" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="R61" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="S61" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -6010,52 +6263,52 @@
         <v>9</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="J62" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="L62" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="N62" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="O62" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="P62" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="Q62" t="s">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="R62" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="S62" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -6069,52 +6322,52 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="F63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
+        <v>249</v>
+      </c>
+      <c r="J63" t="s">
         <v>155</v>
       </c>
-      <c r="G63" t="s">
-        <v>94</v>
-      </c>
-      <c r="H63" t="s">
-        <v>236</v>
-      </c>
-      <c r="I63" t="s">
-        <v>278</v>
-      </c>
-      <c r="J63" t="s">
-        <v>174</v>
-      </c>
       <c r="K63" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="L63" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>488</v>
+        <v>437</v>
       </c>
       <c r="N63" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P63" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="Q63" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="R63" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="S63" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -6128,52 +6381,52 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="I64" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="J64" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="K64" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="N64" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="O64" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="P64" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="Q64" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="R64" t="s">
-        <v>558</v>
+        <v>506</v>
       </c>
       <c r="S64" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -6187,52 +6440,52 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>399</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="G65" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I65" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K65" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="L65" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="N65" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="O65" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="Q65" t="s">
-        <v>521</v>
+        <v>470</v>
       </c>
       <c r="R65" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="S65" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -6246,52 +6499,52 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="E66" t="s">
+        <v>745</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="I66" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="J66" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="K66" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
       <c r="L66" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="N66" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="O66" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="P66" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="Q66" t="s">
-        <v>522</v>
+        <v>471</v>
       </c>
       <c r="R66" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="S66" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
@@ -6305,52 +6558,52 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>746</v>
       </c>
       <c r="F67" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G67" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H67" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I67" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J67" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K67" t="s">
-        <v>668</v>
+        <v>616</v>
       </c>
       <c r="L67" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="N67" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="O67" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="P67" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="Q67" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="R67" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="S67" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -6364,52 +6617,52 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>446</v>
+        <v>166</v>
       </c>
       <c r="F68" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H68" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="I68" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="J68" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="K68" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="L68" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="N68" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="O68" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="P68" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="Q68" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="R68" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="S68" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -6423,52 +6676,52 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>468</v>
       </c>
       <c r="F69" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="H69" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="I69" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="J69" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="K69" t="s">
-        <v>714</v>
+        <v>662</v>
       </c>
       <c r="L69" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>492</v>
+        <v>441</v>
       </c>
       <c r="N69" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="O69" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="P69" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="Q69" t="s">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="R69" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="S69" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -6482,49 +6735,52 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>708</v>
       </c>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>747</v>
+      </c>
+      <c r="F70" t="s">
+        <v>751</v>
       </c>
       <c r="G70" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="H70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" t="s">
+        <v>169</v>
+      </c>
+      <c r="J70" t="s">
+        <v>296</v>
+      </c>
+      <c r="K70" t="s">
         <v>165</v>
       </c>
-      <c r="I70" t="s">
-        <v>198</v>
-      </c>
-      <c r="J70" t="s">
-        <v>325</v>
-      </c>
-      <c r="K70" t="s">
-        <v>184</v>
-      </c>
       <c r="L70" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="N70" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O70" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="P70" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="Q70" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="R70" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S70" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -6538,49 +6794,52 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>709</v>
       </c>
       <c r="E71" t="s">
-        <v>448</v>
+        <v>748</v>
+      </c>
+      <c r="F71" t="s">
+        <v>752</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="I71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J71" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="L71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="N71" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Q71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="R71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S71" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
@@ -6594,49 +6853,52 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>710</v>
       </c>
       <c r="E72" t="s">
-        <v>449</v>
+        <v>749</v>
+      </c>
+      <c r="F72" t="s">
+        <v>753</v>
       </c>
       <c r="G72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H72" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J72" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="K72" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="N72" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Q72" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="R72" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="S72" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -6650,49 +6912,52 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>711</v>
       </c>
       <c r="E73" t="s">
-        <v>450</v>
+        <v>750</v>
+      </c>
+      <c r="F73" t="s">
+        <v>754</v>
       </c>
       <c r="G73" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="H73" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="I73" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="J73" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="K73" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L73" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="N73" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O73" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Q73" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="R73" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="S73" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -6706,49 +6971,52 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>194</v>
+        <v>712</v>
       </c>
       <c r="E74" t="s">
-        <v>451</v>
+        <v>400</v>
+      </c>
+      <c r="F74" t="s">
+        <v>755</v>
       </c>
       <c r="G74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="H74" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="I74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="J74" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="K74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="N74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="R74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="S74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -6771,43 +7039,43 @@
         <v>10000</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="I75" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="J75" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="K75" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
       <c r="L75" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
       <c r="N75" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="O75" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="P75" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="Q75" t="s">
-        <v>525</v>
+        <v>474</v>
       </c>
       <c r="R75" t="s">
-        <v>560</v>
+        <v>508</v>
       </c>
       <c r="S75" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -6830,43 +7098,43 @@
         <v>10000</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="H76" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="I76" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="J76" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="K76" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="L76" t="s">
-        <v>717</v>
+        <v>665</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="N76" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="O76" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="P76" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="Q76" t="s">
-        <v>526</v>
+        <v>475</v>
       </c>
       <c r="R76" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="S76" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -6889,43 +7157,43 @@
         <v>10000</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="I77" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="J77" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="K77" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
       <c r="L77" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="N77" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="O77" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="P77" t="s">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="Q77" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="R77" t="s">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="S77" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -6948,43 +7216,43 @@
         <v>10000</v>
       </c>
       <c r="G78" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="I78" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="J78" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="K78" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
       <c r="L78" t="s">
-        <v>718</v>
+        <v>666</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="N78" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="O78" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="P78" t="s">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="Q78" t="s">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="R78" t="s">
-        <v>562</v>
+        <v>510</v>
       </c>
       <c r="S78" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -6992,49 +7260,58 @@
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
+      <c r="D79">
+        <v>10000</v>
+      </c>
+      <c r="E79">
+        <v>10000</v>
+      </c>
+      <c r="F79">
+        <v>10000</v>
+      </c>
       <c r="G79" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="H79" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="I79" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J79" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
       <c r="K79" t="s">
-        <v>719</v>
+        <v>667</v>
       </c>
       <c r="L79" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="N79" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="O79" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="P79" t="s">
-        <v>598</v>
+        <v>546</v>
       </c>
       <c r="Q79" t="s">
-        <v>606</v>
+        <v>554</v>
       </c>
       <c r="R79" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="S79" t="s">
-        <v>655</v>
+        <v>603</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -7042,49 +7319,58 @@
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
       </c>
+      <c r="D80">
+        <v>10000</v>
+      </c>
+      <c r="E80">
+        <v>10000</v>
+      </c>
+      <c r="F80">
+        <v>10000</v>
+      </c>
       <c r="G80" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="H80" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="I80" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="J80" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K80" t="s">
-        <v>721</v>
+        <v>669</v>
       </c>
       <c r="L80" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>628</v>
+        <v>576</v>
       </c>
       <c r="N80" t="s">
-        <v>641</v>
+        <v>589</v>
       </c>
       <c r="O80" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
       <c r="P80" t="s">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="Q80" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="R80" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="S80" t="s">
-        <v>656</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -7092,49 +7378,58 @@
         <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
+      <c r="D81">
+        <v>10000</v>
+      </c>
+      <c r="E81">
+        <v>10000</v>
+      </c>
+      <c r="F81">
+        <v>10000</v>
+      </c>
       <c r="G81" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="H81" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
       <c r="I81" t="s">
-        <v>612</v>
+        <v>560</v>
       </c>
       <c r="J81" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="K81" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
       <c r="L81" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N81" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="O81" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="P81" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="Q81" t="s">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="R81" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="S81" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -7142,49 +7437,58 @@
         <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
+      <c r="D82">
+        <v>10000</v>
+      </c>
+      <c r="E82">
+        <v>10000</v>
+      </c>
+      <c r="F82">
+        <v>10000</v>
+      </c>
       <c r="G82" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="H82" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="I82" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J82" t="s">
-        <v>595</v>
+        <v>543</v>
       </c>
       <c r="K82" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="L82" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="N82" t="s">
-        <v>642</v>
+        <v>590</v>
       </c>
       <c r="O82" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="P82" t="s">
-        <v>600</v>
+        <v>548</v>
       </c>
       <c r="Q82" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="R82" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="S82" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -7192,49 +7496,58 @@
         <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
       </c>
+      <c r="D83">
+        <v>10000</v>
+      </c>
+      <c r="E83">
+        <v>10000</v>
+      </c>
+      <c r="F83">
+        <v>10000</v>
+      </c>
       <c r="G83" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="H83" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="I83" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J83" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="K83" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="L83" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
       <c r="N83" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O83" t="s">
-        <v>618</v>
+        <v>566</v>
       </c>
       <c r="P83" t="s">
-        <v>601</v>
+        <v>549</v>
       </c>
       <c r="Q83" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="R83" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="S83" t="s">
-        <v>650</v>
+        <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -7242,49 +7555,58 @@
         <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
+      <c r="D84">
+        <v>10000</v>
+      </c>
+      <c r="E84">
+        <v>10000</v>
+      </c>
+      <c r="F84">
+        <v>10000</v>
+      </c>
       <c r="G84" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="H84" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="I84" t="s">
+        <v>547</v>
+      </c>
+      <c r="J84" t="s">
+        <v>296</v>
+      </c>
+      <c r="K84" t="s">
+        <v>674</v>
+      </c>
+      <c r="L84" t="s">
+        <v>206</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="N84" t="s">
+        <v>460</v>
+      </c>
+      <c r="O84" t="s">
+        <v>225</v>
+      </c>
+      <c r="P84" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>461</v>
+      </c>
+      <c r="R84" t="s">
+        <v>488</v>
+      </c>
+      <c r="S84" t="s">
         <v>599</v>
-      </c>
-      <c r="J84" t="s">
-        <v>325</v>
-      </c>
-      <c r="K84" t="s">
-        <v>726</v>
-      </c>
-      <c r="L84" t="s">
-        <v>235</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="N84" t="s">
-        <v>511</v>
-      </c>
-      <c r="O84" t="s">
-        <v>254</v>
-      </c>
-      <c r="P84" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>512</v>
-      </c>
-      <c r="R84" t="s">
-        <v>540</v>
-      </c>
-      <c r="S84" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -7292,49 +7614,58 @@
         <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
+      <c r="D85">
+        <v>10000</v>
+      </c>
+      <c r="E85">
+        <v>10000</v>
+      </c>
+      <c r="F85">
+        <v>10000</v>
+      </c>
       <c r="G85" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="H85" t="s">
-        <v>599</v>
+        <v>547</v>
       </c>
       <c r="I85" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="J85" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="K85" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="L85" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>632</v>
+        <v>580</v>
       </c>
       <c r="N85" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="O85" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="P85" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="Q85" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="R85" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="S85" t="s">
-        <v>652</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -7342,49 +7673,58 @@
         <v>336</v>
       </c>
       <c r="B86" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C86" t="s">
         <v>9</v>
       </c>
+      <c r="D86">
+        <v>10000</v>
+      </c>
+      <c r="E86">
+        <v>10000</v>
+      </c>
+      <c r="F86">
+        <v>10000</v>
+      </c>
       <c r="G86" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="I86" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="J86" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="K86" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="L86" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>633</v>
+        <v>581</v>
       </c>
       <c r="N86" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="O86" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="P86" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="Q86" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="R86" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="S86" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -7392,49 +7732,58 @@
         <v>720</v>
       </c>
       <c r="B87" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
+      <c r="D87">
+        <v>10000</v>
+      </c>
+      <c r="E87">
+        <v>10000</v>
+      </c>
+      <c r="F87">
+        <v>10000</v>
+      </c>
       <c r="G87" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="H87" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="I87" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="J87" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="K87" t="s">
-        <v>730</v>
+        <v>678</v>
       </c>
       <c r="L87" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="N87" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="O87" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="P87" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="Q87" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="R87" t="s">
-        <v>595</v>
+        <v>543</v>
       </c>
       <c r="S87" t="s">
-        <v>654</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
